--- a/Results/Plot data/ipcc_ar6_figure_spm2_regions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm2_regions.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-07-14 14:57:41</t>
+    <t xml:space="preserve">2021-08-03 14:36:30</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">Asia and Developing Pacific</t>
+    <t xml:space="preserve">Asia and developing Pacific</t>
   </si>
   <si>
     <t xml:space="preserve">Developed Countries</t>
@@ -574,790 +574,790 @@
     <t xml:space="preserve">EST</t>
   </si>
   <si>
-    <t xml:space="preserve">Eswatini</t>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faroe Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Guiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Polynesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Southern Territories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia, The</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibraltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadeloupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran, Islamic Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Dem. People's Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao PDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macao SAR, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia, FYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia, Fed. Sts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands Antilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norfolk Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitcairn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Tomé and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
     <t xml:space="preserve">SWZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faroe Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Guiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Polynesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Southern Territories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia, The</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibraltar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadeloupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong SAR, China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HKG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran, Islamic Rep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Dem. People's Rep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Rep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao PDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macao SAR, China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia, Fed. Sts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands Antilles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Caledonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norfolk Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitcairn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Helena, Ascension and Tristan da Cunha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Tomé and Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia and Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
@@ -2046,94 +2046,94 @@
         <v>37</v>
       </c>
       <c r="B2" t="n">
-        <v>2.7850412371936</v>
+        <v>2.78117586018947</v>
       </c>
       <c r="C2" t="n">
-        <v>2.88117545145776</v>
+        <v>2.87804124287312</v>
       </c>
       <c r="D2" t="n">
-        <v>2.96236581232567</v>
+        <v>2.95946964047211</v>
       </c>
       <c r="E2" t="n">
-        <v>3.01906444968053</v>
+        <v>3.01652507316132</v>
       </c>
       <c r="F2" t="n">
-        <v>3.11890698705476</v>
+        <v>3.11665135255466</v>
       </c>
       <c r="G2" t="n">
-        <v>3.22414580171355</v>
+        <v>3.22201974139954</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35063215727641</v>
+        <v>3.34771376974332</v>
       </c>
       <c r="I2" t="n">
-        <v>3.37524153299955</v>
+        <v>3.37241282625702</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35857481187665</v>
+        <v>3.35521446178457</v>
       </c>
       <c r="K2" t="n">
-        <v>3.34996615310475</v>
+        <v>3.34613876641945</v>
       </c>
       <c r="L2" t="n">
-        <v>3.40999622987451</v>
+        <v>3.40591909630332</v>
       </c>
       <c r="M2" t="n">
-        <v>3.50934795393465</v>
+        <v>3.50462280670841</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55182687982627</v>
+        <v>3.54698386745827</v>
       </c>
       <c r="O2" t="n">
-        <v>3.690440732951</v>
+        <v>3.6847727480052</v>
       </c>
       <c r="P2" t="n">
-        <v>3.8222295327787</v>
+        <v>3.81620932999106</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.87521371014814</v>
+        <v>3.86806789893323</v>
       </c>
       <c r="R2" t="n">
-        <v>3.86398610877751</v>
+        <v>3.85623425914768</v>
       </c>
       <c r="S2" t="n">
-        <v>3.88395151099811</v>
+        <v>3.875878836096</v>
       </c>
       <c r="T2" t="n">
-        <v>4.00924476791017</v>
+        <v>4.00035251376833</v>
       </c>
       <c r="U2" t="n">
-        <v>4.163282911029</v>
+        <v>4.15346069994369</v>
       </c>
       <c r="V2" t="n">
-        <v>4.37999252357272</v>
+        <v>4.3696304178303</v>
       </c>
       <c r="W2" t="n">
-        <v>4.33982721415813</v>
+        <v>4.32906160513759</v>
       </c>
       <c r="X2" t="n">
-        <v>4.48726997922244</v>
+        <v>4.47576394981257</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.57815672366932</v>
+        <v>4.56613437099551</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.74224382959317</v>
+        <v>4.72976822425803</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.71526689769676</v>
+        <v>4.70212556467669</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.75619564220343</v>
+        <v>4.74278978846222</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.84158210275672</v>
+        <v>4.82760507542698</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.97752146480304</v>
+        <v>4.96307658890846</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.02571851768306</v>
+        <v>5.01078496440662</v>
       </c>
     </row>
     <row r="3">
@@ -2141,94 +2141,94 @@
         <v>38</v>
       </c>
       <c r="B3" t="n">
-        <v>9.82009832207347</v>
+        <v>9.78855853044543</v>
       </c>
       <c r="C3" t="n">
-        <v>9.99304295318219</v>
+        <v>9.96349386645451</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1741954814166</v>
+        <v>10.1444422509468</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5085064741496</v>
+        <v>10.4769125633054</v>
       </c>
       <c r="F3" t="n">
-        <v>10.8365896488917</v>
+        <v>10.799624293385</v>
       </c>
       <c r="G3" t="n">
-        <v>11.4137316217499</v>
+        <v>11.3879385180642</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5510955125472</v>
+        <v>11.5227549613338</v>
       </c>
       <c r="I3" t="n">
-        <v>13.494202313146</v>
+        <v>13.4578704142395</v>
       </c>
       <c r="J3" t="n">
-        <v>11.5968589691528</v>
+        <v>11.5734126805342</v>
       </c>
       <c r="K3" t="n">
-        <v>11.7311922697596</v>
+        <v>11.6648364042344</v>
       </c>
       <c r="L3" t="n">
-        <v>12.3389471762041</v>
+        <v>12.2891561821885</v>
       </c>
       <c r="M3" t="n">
-        <v>12.4012854223954</v>
+        <v>12.3510973556015</v>
       </c>
       <c r="N3" t="n">
-        <v>13.224487489677</v>
+        <v>13.1367279292584</v>
       </c>
       <c r="O3" t="n">
-        <v>14.1586819023105</v>
+        <v>14.0651886166758</v>
       </c>
       <c r="P3" t="n">
-        <v>14.9201619936114</v>
+        <v>14.8020659884088</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.8224352262501</v>
+        <v>15.7032652159343</v>
       </c>
       <c r="R3" t="n">
-        <v>17.163559414262</v>
+        <v>17.0359257580687</v>
       </c>
       <c r="S3" t="n">
-        <v>17.5107635106109</v>
+        <v>17.3949383739507</v>
       </c>
       <c r="T3" t="n">
-        <v>18.1148647367399</v>
+        <v>17.9603384903393</v>
       </c>
       <c r="U3" t="n">
-        <v>19.715997703679</v>
+        <v>19.5884980082672</v>
       </c>
       <c r="V3" t="n">
-        <v>20.2342076802696</v>
+        <v>20.1153747710255</v>
       </c>
       <c r="W3" t="n">
-        <v>21.3413533517751</v>
+        <v>21.2271545261698</v>
       </c>
       <c r="X3" t="n">
-        <v>22.1881443552161</v>
+        <v>22.0704794907148</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.5446299770836</v>
+        <v>22.4026277066266</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.6536122586017</v>
+        <v>23.510405159993</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.8062613851661</v>
+        <v>23.6157677564836</v>
       </c>
       <c r="AB3" t="n">
-        <v>23.1097533098134</v>
+        <v>22.8989208698233</v>
       </c>
       <c r="AC3" t="n">
-        <v>23.7688019652541</v>
+        <v>23.5469998150287</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.4574675876783</v>
+        <v>24.2229309063273</v>
       </c>
       <c r="AE3" t="n">
-        <v>25.6159428377793</v>
+        <v>25.3709365990796</v>
       </c>
     </row>
     <row r="4">
@@ -2236,94 +2236,94 @@
         <v>39</v>
       </c>
       <c r="B4" t="n">
-        <v>15.7319383818964</v>
+        <v>15.7116310829023</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5533721222225</v>
+        <v>15.5380191572034</v>
       </c>
       <c r="D4" t="n">
-        <v>15.3522726921236</v>
+        <v>15.3522284114469</v>
       </c>
       <c r="E4" t="n">
-        <v>15.2570094366222</v>
+        <v>15.266257126736</v>
       </c>
       <c r="F4" t="n">
-        <v>15.2848358708411</v>
+        <v>15.3149629195541</v>
       </c>
       <c r="G4" t="n">
-        <v>15.4406022732349</v>
+        <v>15.4725286826873</v>
       </c>
       <c r="H4" t="n">
-        <v>15.7035785262772</v>
+        <v>15.7430167888354</v>
       </c>
       <c r="I4" t="n">
-        <v>15.8904770544839</v>
+        <v>15.9356702275663</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8364791804318</v>
+        <v>15.8647822560191</v>
       </c>
       <c r="K4" t="n">
-        <v>15.8299892578618</v>
+        <v>15.8405026478857</v>
       </c>
       <c r="L4" t="n">
-        <v>16.1611111740568</v>
+        <v>16.1585772253166</v>
       </c>
       <c r="M4" t="n">
-        <v>16.0107956138376</v>
+        <v>15.9891700530644</v>
       </c>
       <c r="N4" t="n">
-        <v>15.8356764194154</v>
+        <v>15.7919367148426</v>
       </c>
       <c r="O4" t="n">
-        <v>16.1322926644372</v>
+        <v>16.0613105115996</v>
       </c>
       <c r="P4" t="n">
-        <v>16.267691914777</v>
+        <v>16.1762478805987</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.2318249704273</v>
+        <v>16.1059345461148</v>
       </c>
       <c r="R4" t="n">
-        <v>16.1882853740132</v>
+        <v>15.9675561204293</v>
       </c>
       <c r="S4" t="n">
-        <v>16.4358780811369</v>
+        <v>16.1834159080096</v>
       </c>
       <c r="T4" t="n">
-        <v>16.0585657709509</v>
+        <v>15.762684125502</v>
       </c>
       <c r="U4" t="n">
-        <v>14.9796052531652</v>
+        <v>14.6358470091342</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6167000608064</v>
+        <v>15.2253923754817</v>
       </c>
       <c r="W4" t="n">
-        <v>15.4919609566115</v>
+        <v>15.0539966221942</v>
       </c>
       <c r="X4" t="n">
-        <v>15.156375030345</v>
+        <v>14.699955685139</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.4016662139189</v>
+        <v>14.9095352249252</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.1138258740537</v>
+        <v>14.5809979498213</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.0609677779</v>
+        <v>14.4598721493108</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.1677638425977</v>
+        <v>14.5250400451927</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.9786362370879</v>
+        <v>14.311264051379</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.1037901474029</v>
+        <v>14.4135335770501</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.827789977178</v>
+        <v>14.1089535361882</v>
       </c>
     </row>
     <row r="5">
@@ -2331,94 +2331,94 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>4.31383503929025</v>
+        <v>4.3179798884955</v>
       </c>
       <c r="C5" t="n">
-        <v>4.20797606677969</v>
+        <v>4.20857715534677</v>
       </c>
       <c r="D5" t="n">
-        <v>3.87764469522019</v>
+        <v>3.87233183903029</v>
       </c>
       <c r="E5" t="n">
-        <v>3.53531488841273</v>
+        <v>3.5241225135017</v>
       </c>
       <c r="F5" t="n">
-        <v>3.16007568652136</v>
+        <v>3.15109035183345</v>
       </c>
       <c r="G5" t="n">
-        <v>3.00910025067955</v>
+        <v>3.00005673405601</v>
       </c>
       <c r="H5" t="n">
-        <v>2.89017640090297</v>
+        <v>2.88096639905926</v>
       </c>
       <c r="I5" t="n">
-        <v>2.70358543900644</v>
+        <v>2.69404857358204</v>
       </c>
       <c r="J5" t="n">
-        <v>2.69773182775776</v>
+        <v>2.68529299499962</v>
       </c>
       <c r="K5" t="n">
-        <v>2.71502394898845</v>
+        <v>2.69941592853339</v>
       </c>
       <c r="L5" t="n">
-        <v>2.81729783233408</v>
+        <v>2.8003002399319</v>
       </c>
       <c r="M5" t="n">
-        <v>2.84984533500469</v>
+        <v>2.82925749253146</v>
       </c>
       <c r="N5" t="n">
-        <v>2.87571048905244</v>
+        <v>2.85545441246819</v>
       </c>
       <c r="O5" t="n">
-        <v>2.98343118296014</v>
+        <v>2.95804080348945</v>
       </c>
       <c r="P5" t="n">
-        <v>3.21761991440501</v>
+        <v>3.1911718608288</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.11276902858626</v>
+        <v>3.07911103424171</v>
       </c>
       <c r="R5" t="n">
-        <v>3.16753282043562</v>
+        <v>3.12717677801732</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2012888862983</v>
+        <v>3.15747692481412</v>
       </c>
       <c r="T5" t="n">
-        <v>3.27817390820343</v>
+        <v>3.23004722488782</v>
       </c>
       <c r="U5" t="n">
-        <v>3.0513367591218</v>
+        <v>3.00321794267888</v>
       </c>
       <c r="V5" t="n">
-        <v>3.23691395567032</v>
+        <v>3.1865934412921</v>
       </c>
       <c r="W5" t="n">
-        <v>3.37968831205005</v>
+        <v>3.33421823981637</v>
       </c>
       <c r="X5" t="n">
-        <v>3.45455631996203</v>
+        <v>3.39620940808178</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.42002183231064</v>
+        <v>3.3432360436151</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.39136247086141</v>
+        <v>3.30238125065572</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.43742633955555</v>
+        <v>3.34759966557247</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.50701996415385</v>
+        <v>3.4103279666348</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.54928415803026</v>
+        <v>3.42711799039214</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.6402150468166</v>
+        <v>3.49788219641514</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.68104468498725</v>
+        <v>3.50920913173156</v>
       </c>
     </row>
     <row r="6">
@@ -2426,94 +2426,94 @@
         <v>41</v>
       </c>
       <c r="B6" t="n">
-        <v>3.72554138261754</v>
+        <v>3.71758125594327</v>
       </c>
       <c r="C6" t="n">
-        <v>3.78420861187425</v>
+        <v>3.77623421210789</v>
       </c>
       <c r="D6" t="n">
-        <v>3.89433519596299</v>
+        <v>3.88733637123942</v>
       </c>
       <c r="E6" t="n">
-        <v>3.99586255551938</v>
+        <v>3.98895847092977</v>
       </c>
       <c r="F6" t="n">
-        <v>4.11720890678084</v>
+        <v>4.11134994982007</v>
       </c>
       <c r="G6" t="n">
-        <v>4.19149404255225</v>
+        <v>4.1839248190343</v>
       </c>
       <c r="H6" t="n">
-        <v>4.25647799474746</v>
+        <v>4.24849583059584</v>
       </c>
       <c r="I6" t="n">
-        <v>4.37387786988718</v>
+        <v>4.36570859547034</v>
       </c>
       <c r="J6" t="n">
-        <v>4.42882651179677</v>
+        <v>4.42074892861845</v>
       </c>
       <c r="K6" t="n">
-        <v>4.42855419908495</v>
+        <v>4.42031885504016</v>
       </c>
       <c r="L6" t="n">
-        <v>4.73593534358662</v>
+        <v>4.72774621048037</v>
       </c>
       <c r="M6" t="n">
-        <v>4.87274787717467</v>
+        <v>4.86414782669866</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1327986024211</v>
+        <v>5.12268543656604</v>
       </c>
       <c r="O6" t="n">
-        <v>5.33537078291415</v>
+        <v>5.32373207990878</v>
       </c>
       <c r="P6" t="n">
-        <v>5.42246975012658</v>
+        <v>5.40878273760339</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.47706572274933</v>
+        <v>5.45987270048028</v>
       </c>
       <c r="R6" t="n">
-        <v>5.58048738262457</v>
+        <v>5.55965251117051</v>
       </c>
       <c r="S6" t="n">
-        <v>5.52374706253097</v>
+        <v>5.50206769585262</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5714632420406</v>
+        <v>5.54953497236601</v>
       </c>
       <c r="U6" t="n">
-        <v>5.6498240018333</v>
+        <v>5.62654656086505</v>
       </c>
       <c r="V6" t="n">
-        <v>5.57983212015448</v>
+        <v>5.55401448554733</v>
       </c>
       <c r="W6" t="n">
-        <v>5.43550189521966</v>
+        <v>5.40783724775506</v>
       </c>
       <c r="X6" t="n">
-        <v>5.78375560691039</v>
+        <v>5.75329217236693</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.86345915649589</v>
+        <v>5.83149911471359</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.5995841969365</v>
+        <v>5.5667104737804</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.78431963378739</v>
+        <v>5.74840147244803</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.77771459099143</v>
+        <v>5.74045426273699</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.69980650893335</v>
+        <v>5.66118484405445</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.58182384808417</v>
+        <v>5.54146726616777</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.90532593595081</v>
+        <v>5.86372355898091</v>
       </c>
     </row>
     <row r="7">
@@ -2521,94 +2521,94 @@
         <v>42</v>
       </c>
       <c r="B7" t="n">
-        <v>1.120021604907</v>
+        <v>1.11314883660524</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1147377868183</v>
+        <v>1.10703797681478</v>
       </c>
       <c r="D7" t="n">
-        <v>1.18745377234719</v>
+        <v>1.1803686068144</v>
       </c>
       <c r="E7" t="n">
-        <v>1.26336670539396</v>
+        <v>1.25734742379582</v>
       </c>
       <c r="F7" t="n">
-        <v>1.356014209834</v>
+        <v>1.35120662314038</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36636579608956</v>
+        <v>1.36141084798939</v>
       </c>
       <c r="H7" t="n">
-        <v>1.41742888778997</v>
+        <v>1.41248793505667</v>
       </c>
       <c r="I7" t="n">
-        <v>1.50460065728966</v>
+        <v>1.49980033609077</v>
       </c>
       <c r="J7" t="n">
-        <v>1.48165148522401</v>
+        <v>1.47659427177101</v>
       </c>
       <c r="K7" t="n">
-        <v>1.5268879061735</v>
+        <v>1.52112333049899</v>
       </c>
       <c r="L7" t="n">
-        <v>1.63978297615172</v>
+        <v>1.63404166047332</v>
       </c>
       <c r="M7" t="n">
-        <v>1.68992769419047</v>
+        <v>1.6832298035749</v>
       </c>
       <c r="N7" t="n">
-        <v>1.72113392976676</v>
+        <v>1.71385679564722</v>
       </c>
       <c r="O7" t="n">
-        <v>1.81976867680689</v>
+        <v>1.81201894116726</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91576254630927</v>
+        <v>1.90771023807878</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02132175036341</v>
+        <v>2.01238952112883</v>
       </c>
       <c r="R7" t="n">
-        <v>2.13368790718764</v>
+        <v>2.12356177383219</v>
       </c>
       <c r="S7" t="n">
-        <v>2.20251910966908</v>
+        <v>2.19212472211411</v>
       </c>
       <c r="T7" t="n">
-        <v>2.30713890691542</v>
+        <v>2.29541761341306</v>
       </c>
       <c r="U7" t="n">
-        <v>2.39213395394254</v>
+        <v>2.37980007703241</v>
       </c>
       <c r="V7" t="n">
-        <v>2.51093298537714</v>
+        <v>2.49816968927655</v>
       </c>
       <c r="W7" t="n">
-        <v>2.60075511548564</v>
+        <v>2.58781169709381</v>
       </c>
       <c r="X7" t="n">
-        <v>2.69369764908617</v>
+        <v>2.6799302052901</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.75505054115167</v>
+        <v>2.74074312724795</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.84084058048864</v>
+        <v>2.82656481260435</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.88686740515543</v>
+        <v>2.87228223581711</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.98202408246417</v>
+        <v>2.96655061407601</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.03181088750805</v>
+        <v>3.01549962131944</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.05174782103635</v>
+        <v>3.03492621796472</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.12876393670867</v>
+        <v>3.11117678689397</v>
       </c>
     </row>
     <row r="8">
@@ -2769,7 +2769,7 @@
         <v>55</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
@@ -2789,16 +2789,16 @@
         <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>1.91568506471838</v>
+        <v>1.81903780106014</v>
       </c>
       <c r="E3" t="n">
-        <v>9589892.60733738</v>
+        <v>9359824.22338104</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
@@ -2818,16 +2818,16 @@
         <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>3.2682447187375</v>
+        <v>3.26037535298298</v>
       </c>
       <c r="E4" t="n">
-        <v>277720442.672221</v>
+        <v>276470854.611608</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
@@ -2856,7 +2856,7 @@
         <v>55</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
@@ -2876,16 +2876,16 @@
         <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>0.78009094484246</v>
+        <v>0.776018954997437</v>
       </c>
       <c r="E6" t="n">
-        <v>82969701.7289731</v>
+        <v>82905802.7368594</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
@@ -2914,7 +2914,7 @@
         <v>55</v>
       </c>
       <c r="G7" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2930,16 +2930,16 @@
         <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.570735246642251</v>
+        <v>-0.733437586937091</v>
       </c>
       <c r="E8" t="n">
-        <v>633874.794136689</v>
+        <v>613104.213795123</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H8" t="n">
         <v>2019</v>
@@ -2959,16 +2959,16 @@
         <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>0.580401168538436</v>
+        <v>0.579361421565228</v>
       </c>
       <c r="E9" t="n">
-        <v>393038513.083013</v>
+        <v>391904497.510324</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H9" t="n">
         <v>2019</v>
@@ -2988,16 +2988,16 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>2.30017850135595</v>
+        <v>1.7074618926858</v>
       </c>
       <c r="E10" t="n">
-        <v>9523627.66989927</v>
+        <v>8312267.53773393</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="n">
-        <v>1.21269100640971</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H10" t="n">
         <v>2019</v>
@@ -3026,7 +3026,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H11" t="n">
         <v>2019</v>
@@ -3046,16 +3046,16 @@
         <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>0.270674238391533</v>
+        <v>0.238672864175626</v>
       </c>
       <c r="E12" t="n">
-        <v>615112529.378321</v>
+        <v>609893911.884865</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H12" t="n">
         <v>2019</v>
@@ -3075,16 +3075,16 @@
         <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>0.48476267419737</v>
+        <v>-0.505075008869826</v>
       </c>
       <c r="E13" t="n">
-        <v>98784722.6764067</v>
+        <v>88218641.2221432</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H13" t="n">
         <v>2019</v>
@@ -3104,16 +3104,16 @@
         <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>2.61988968076556</v>
+        <v>2.6690176911021</v>
       </c>
       <c r="E14" t="n">
-        <v>60748613.7137095</v>
+        <v>60599930.1886119</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
       <c r="G14" t="n">
-        <v>1.21269100640971</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H14" t="n">
         <v>2019</v>
@@ -3142,7 +3142,7 @@
         <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H15" t="n">
         <v>2019</v>
@@ -3162,16 +3162,16 @@
         <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>2.90978783985665</v>
+        <v>2.9194197407636</v>
       </c>
       <c r="E16" t="n">
-        <v>65788242.8690716</v>
+        <v>65660265.7794023</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4617820935279</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H16" t="n">
         <v>2019</v>
@@ -3200,7 +3200,7 @@
         <v>55</v>
       </c>
       <c r="G17" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H17" t="n">
         <v>2019</v>
@@ -3229,7 +3229,7 @@
         <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H18" t="n">
         <v>2019</v>
@@ -3249,16 +3249,16 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>1.37597380296539</v>
+        <v>1.34069622761548</v>
       </c>
       <c r="E19" t="n">
-        <v>105309311.712608</v>
+        <v>104316820.236625</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
       </c>
       <c r="G19" t="n">
-        <v>1.21269100640971</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H19" t="n">
         <v>2019</v>
@@ -3278,16 +3278,16 @@
         <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.31799563873809</v>
+        <v>-1.22738882527889</v>
       </c>
       <c r="E20" t="n">
-        <v>131763566.663163</v>
+        <v>133002256.186842</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H20" t="n">
         <v>2019</v>
@@ -3316,7 +3316,7 @@
         <v>55</v>
       </c>
       <c r="G21" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H21" t="n">
         <v>2019</v>
@@ -3345,7 +3345,7 @@
         <v>55</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H22" t="n">
         <v>2019</v>
@@ -3374,7 +3374,7 @@
         <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H23" t="n">
         <v>2019</v>
@@ -3403,7 +3403,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H24" t="n">
         <v>2019</v>
@@ -3432,7 +3432,7 @@
         <v>55</v>
       </c>
       <c r="G25" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H25" t="n">
         <v>2019</v>
@@ -3452,16 +3452,16 @@
         <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>3.07251065753229</v>
+        <v>2.76942885324678</v>
       </c>
       <c r="E26" t="n">
-        <v>37084343.3611586</v>
+        <v>35774202.8104252</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H26" t="n">
         <v>2019</v>
@@ -3490,7 +3490,7 @@
         <v>55</v>
       </c>
       <c r="G27" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H27" t="n">
         <v>2019</v>
@@ -3519,7 +3519,7 @@
         <v>55</v>
       </c>
       <c r="G28" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -3535,16 +3535,16 @@
         <v>41</v>
       </c>
       <c r="D29" t="n">
-        <v>0.999592172224939</v>
+        <v>0.978572262568633</v>
       </c>
       <c r="E29" t="n">
-        <v>1305522700.42966</v>
+        <v>1290966690.68178</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
       </c>
       <c r="G29" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H29" t="n">
         <v>2019</v>
@@ -3573,7 +3573,7 @@
         <v>55</v>
       </c>
       <c r="G30" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H30" t="n">
         <v>2019</v>
@@ -3593,16 +3593,16 @@
         <v>38</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.164853020494349</v>
+        <v>-0.492214658310164</v>
       </c>
       <c r="E31" t="n">
-        <v>14368269.2080804</v>
+        <v>13450129.078277</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H31" t="n">
         <v>2019</v>
@@ -3622,16 +3622,16 @@
         <v>39</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.501267659455906</v>
+        <v>-0.573464980573057</v>
       </c>
       <c r="E32" t="n">
-        <v>59347513.4903613</v>
+        <v>58884526.7109538</v>
       </c>
       <c r="F32" t="s">
         <v>55</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H32" t="n">
         <v>2019</v>
@@ -3660,7 +3660,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H33" t="n">
         <v>2019</v>
@@ -3689,7 +3689,7 @@
         <v>55</v>
       </c>
       <c r="G34" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H34" t="n">
         <v>2019</v>
@@ -3718,7 +3718,7 @@
         <v>55</v>
       </c>
       <c r="G35" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H35" t="n">
         <v>2019</v>
@@ -3747,7 +3747,7 @@
         <v>55</v>
       </c>
       <c r="G36" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H36" t="n">
         <v>2019</v>
@@ -3767,16 +3767,16 @@
         <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>2.82724712501903</v>
+        <v>2.88418742333996</v>
       </c>
       <c r="E37" t="n">
-        <v>40517932.4761479</v>
+        <v>40487789.8455322</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
       </c>
       <c r="G37" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H37" t="n">
         <v>2019</v>
@@ -3796,16 +3796,16 @@
         <v>39</v>
       </c>
       <c r="D38" t="n">
-        <v>1.02749004403837</v>
+        <v>0.554450992166777</v>
       </c>
       <c r="E38" t="n">
-        <v>821041137.39064</v>
+        <v>766116745.706802</v>
       </c>
       <c r="F38" t="s">
         <v>55</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H38" t="n">
         <v>2019</v>
@@ -3834,7 +3834,7 @@
         <v>55</v>
       </c>
       <c r="G39" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H39" t="n">
         <v>2019</v>
@@ -3863,7 +3863,7 @@
         <v>55</v>
       </c>
       <c r="G40" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H40" t="n">
         <v>2019</v>
@@ -3892,7 +3892,7 @@
         <v>55</v>
       </c>
       <c r="G41" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H41" t="n">
         <v>2019</v>
@@ -3912,16 +3912,16 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>1.6313507038265</v>
+        <v>1.63139377396044</v>
       </c>
       <c r="E42" t="n">
-        <v>118909649.056648</v>
+        <v>118900238.09419</v>
       </c>
       <c r="F42" t="s">
         <v>55</v>
       </c>
       <c r="G42" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H42" t="n">
         <v>2019</v>
@@ -3941,16 +3941,16 @@
         <v>38</v>
       </c>
       <c r="D43" t="n">
-        <v>2.29125825766729</v>
+        <v>2.21410929447241</v>
       </c>
       <c r="E43" t="n">
-        <v>14175752679.1561</v>
+        <v>13971377311.4301</v>
       </c>
       <c r="F43" t="s">
         <v>55</v>
       </c>
       <c r="G43" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H43" t="n">
         <v>2019</v>
@@ -3979,7 +3979,7 @@
         <v>55</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
@@ -4004,7 +4004,7 @@
         <v>55</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
@@ -4020,16 +4020,16 @@
         <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>1.95728752400506</v>
+        <v>1.95606774744368</v>
       </c>
       <c r="E46" t="n">
-        <v>207471668.2706</v>
+        <v>207316294.668746</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
       </c>
       <c r="G46" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H46" t="n">
         <v>2019</v>
@@ -4049,16 +4049,16 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>3.78327584629454</v>
+        <v>3.77890923912843</v>
       </c>
       <c r="E47" t="n">
-        <v>832473.526177851</v>
+        <v>831537.700632116</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
       </c>
       <c r="G47" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H47" t="n">
         <v>2019</v>
@@ -4087,7 +4087,7 @@
         <v>55</v>
       </c>
       <c r="G48" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H48" t="n">
         <v>2019</v>
@@ -4107,16 +4107,16 @@
         <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>0.273455080136387</v>
+        <v>0.269102108592012</v>
       </c>
       <c r="E49" t="n">
-        <v>23215440.4984412</v>
+        <v>23196873.2429257</v>
       </c>
       <c r="F49" t="s">
         <v>55</v>
       </c>
       <c r="G49" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H49" t="n">
         <v>2019</v>
@@ -4145,7 +4145,7 @@
         <v>55</v>
       </c>
       <c r="G50" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -4161,16 +4161,16 @@
         <v>41</v>
       </c>
       <c r="D51" t="n">
-        <v>1.62692617822853</v>
+        <v>1.57745687557214</v>
       </c>
       <c r="E51" t="n">
-        <v>15870697.4268594</v>
+        <v>15656721.525124</v>
       </c>
       <c r="F51" t="s">
         <v>55</v>
       </c>
       <c r="G51" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H51" t="n">
         <v>2019</v>
@@ -4199,7 +4199,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H52" t="n">
         <v>2019</v>
@@ -4219,16 +4219,16 @@
         <v>39</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.28510064176192</v>
+        <v>-1.22996764591373</v>
       </c>
       <c r="E53" t="n">
-        <v>25922501.5886494</v>
+        <v>26394596.8344953</v>
       </c>
       <c r="F53" t="s">
         <v>55</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H53" t="n">
         <v>2019</v>
@@ -4248,16 +4248,16 @@
         <v>41</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.997610416919692</v>
+        <v>-1.05776838739036</v>
       </c>
       <c r="E54" t="n">
-        <v>46922891.1058461</v>
+        <v>46412744.7854307</v>
       </c>
       <c r="F54" t="s">
         <v>55</v>
       </c>
       <c r="G54" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H54" t="n">
         <v>2019</v>
@@ -4286,7 +4286,7 @@
         <v>55</v>
       </c>
       <c r="G55" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H55" t="n">
         <v>2019</v>
@@ -4306,16 +4306,16 @@
         <v>39</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.67826741514535</v>
+        <v>-0.597195715717636</v>
       </c>
       <c r="E56" t="n">
-        <v>9029121.9733524</v>
+        <v>8968834.34719635</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H56" t="n">
         <v>2019</v>
@@ -4335,16 +4335,16 @@
         <v>39</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.03614729515382</v>
+        <v>-1.26725525180741</v>
       </c>
       <c r="E57" t="n">
-        <v>133401947.975089</v>
+        <v>128787289.155753</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H57" t="n">
         <v>2019</v>
@@ -4364,16 +4364,16 @@
         <v>39</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.59674379374119</v>
+        <v>-3.67863384770877</v>
       </c>
       <c r="E58" t="n">
-        <v>47587092.4483663</v>
+        <v>46349076.5440613</v>
       </c>
       <c r="F58" t="s">
         <v>55</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H58" t="n">
         <v>2019</v>
@@ -4402,7 +4402,7 @@
         <v>55</v>
       </c>
       <c r="G59" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H59" t="n">
         <v>2019</v>
@@ -4431,7 +4431,7 @@
         <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H60" t="n">
         <v>2019</v>
@@ -4460,7 +4460,7 @@
         <v>55</v>
       </c>
       <c r="G61" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H61" t="n">
         <v>2019</v>
@@ -4480,16 +4480,16 @@
         <v>41</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0314219096852142</v>
+        <v>0.0153202329799207</v>
       </c>
       <c r="E62" t="n">
-        <v>68852743.6246871</v>
+        <v>68622352.4003334</v>
       </c>
       <c r="F62" t="s">
         <v>55</v>
       </c>
       <c r="G62" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H62" t="n">
         <v>2019</v>
@@ -4509,16 +4509,16 @@
         <v>37</v>
       </c>
       <c r="D63" t="n">
-        <v>2.45659951366028</v>
+        <v>2.43863189436611</v>
       </c>
       <c r="E63" t="n">
-        <v>384711754.197308</v>
+        <v>379230409.257886</v>
       </c>
       <c r="F63" t="s">
         <v>55</v>
       </c>
       <c r="G63" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H63" t="n">
         <v>2019</v>
@@ -4538,16 +4538,16 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>0.335820346810611</v>
+        <v>0.256165317838541</v>
       </c>
       <c r="E64" t="n">
-        <v>12541949.8231868</v>
+        <v>12297412.3471105</v>
       </c>
       <c r="F64" t="s">
         <v>55</v>
       </c>
       <c r="G64" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H64" t="n">
         <v>2019</v>
@@ -4576,7 +4576,7 @@
         <v>55</v>
       </c>
       <c r="G65" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H65" t="n">
         <v>2019</v>
@@ -4605,7 +4605,7 @@
         <v>55</v>
       </c>
       <c r="G66" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H66" t="n">
         <v>2019</v>
@@ -4623,16 +4623,16 @@
         <v>39</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.82075807435584</v>
+        <v>-1.79070530645679</v>
       </c>
       <c r="E67" t="n">
-        <v>22008949.4577034</v>
+        <v>22178539.3213399</v>
       </c>
       <c r="F67" t="s">
         <v>55</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H67" t="n">
         <v>2019</v>
@@ -4652,22 +4652,22 @@
         <v>37</v>
       </c>
       <c r="D68" t="n">
-        <v>-3.31057336550957</v>
+        <v>2.9776182313326</v>
       </c>
       <c r="E68" t="n">
-        <v>3419514.07480908</v>
+        <v>160570863.072025</v>
       </c>
       <c r="F68" t="s">
         <v>55</v>
       </c>
       <c r="G68" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H68" t="n">
         <v>2019</v>
       </c>
       <c r="I68" t="n">
-        <v>1148130</v>
+        <v>112078730</v>
       </c>
     </row>
     <row r="69">
@@ -4678,26 +4678,22 @@
         <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D69" t="n">
-        <v>2.97814300457335</v>
+        <v>-0.0670005906130644</v>
       </c>
       <c r="E69" t="n">
-        <v>160603569.073114</v>
+        <v>183519.108732811</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
       </c>
       <c r="G69" t="n">
-        <v>1.89525038872822</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I69" t="n">
-        <v>112078730</v>
-      </c>
+        <v>0.560492995259265</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -4707,22 +4703,26 @@
         <v>191</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0670005906130644</v>
+        <v>0.188279281452508</v>
       </c>
       <c r="E70" t="n">
-        <v>183519.108732811</v>
+        <v>46841.1039430275</v>
       </c>
       <c r="F70" t="s">
         <v>55</v>
       </c>
       <c r="G70" t="n">
-        <v>0.604685265666549</v>
-      </c>
-      <c r="H70"/>
-      <c r="I70"/>
+        <v>-0.881735158717378</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I70" t="n">
+        <v>48678</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -4732,25 +4732,25 @@
         <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" t="n">
-        <v>0.188279281452508</v>
+        <v>4.65743612686809</v>
       </c>
       <c r="E71" t="n">
-        <v>46841.1039430275</v>
+        <v>3404521.90490888</v>
       </c>
       <c r="F71" t="s">
         <v>55</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H71" t="n">
         <v>2019</v>
       </c>
       <c r="I71" t="n">
-        <v>48678</v>
+        <v>889953</v>
       </c>
     </row>
     <row r="72">
@@ -4761,25 +4761,25 @@
         <v>195</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" t="n">
-        <v>4.65743612686809</v>
+        <v>-2.95571073374339</v>
       </c>
       <c r="E72" t="n">
-        <v>3404521.90490888</v>
+        <v>73480490.249732</v>
       </c>
       <c r="F72" t="s">
         <v>55</v>
       </c>
       <c r="G72" t="n">
-        <v>2.46988231480199</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H72" t="n">
         <v>2019</v>
       </c>
       <c r="I72" t="n">
-        <v>889953</v>
+        <v>5520314</v>
       </c>
     </row>
     <row r="73">
@@ -4793,22 +4793,22 @@
         <v>39</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.96173199209784</v>
+        <v>-1.51847692857406</v>
       </c>
       <c r="E73" t="n">
-        <v>73517401.6353897</v>
+        <v>446285864.201888</v>
       </c>
       <c r="F73" t="s">
         <v>55</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H73" t="n">
         <v>2019</v>
       </c>
       <c r="I73" t="n">
-        <v>5520314</v>
+        <v>67059887</v>
       </c>
     </row>
     <row r="74">
@@ -4819,26 +4819,22 @@
         <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.57401229554396</v>
+        <v>-1.3419352403871</v>
       </c>
       <c r="E74" t="n">
-        <v>450082435.134419</v>
+        <v>685835.435803375</v>
       </c>
       <c r="F74" t="s">
         <v>55</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.615155999674455</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I74" t="n">
-        <v>67059887</v>
-      </c>
+        <v>0.560492995259265</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -4848,22 +4844,26 @@
         <v>201</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.3419352403871</v>
+        <v>1.69786754556234</v>
       </c>
       <c r="E75" t="n">
-        <v>685835.435803375</v>
+        <v>1142237.99776188</v>
       </c>
       <c r="F75" t="s">
         <v>55</v>
       </c>
       <c r="G75" t="n">
-        <v>0.604685265666549</v>
-      </c>
-      <c r="H75"/>
-      <c r="I75"/>
+        <v>2.42141644222735</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I75" t="n">
+        <v>279287</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -4873,26 +4873,22 @@
         <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.69786754556234</v>
+        <v>37</v>
+      </c>
+      <c r="D76" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E76" t="n">
-        <v>1142237.99776188</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
         <v>55</v>
       </c>
       <c r="G76" t="n">
-        <v>2.46988231480199</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I76" t="n">
-        <v>279287</v>
-      </c>
+        <v>1.88593144450215</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -4904,20 +4900,24 @@
       <c r="C77" t="s">
         <v>37</v>
       </c>
-      <c r="D77" t="e">
-        <v>#NUM!</v>
+      <c r="D77" t="n">
+        <v>-0.746603874627905</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>19367927.1141581</v>
       </c>
       <c r="F77" t="s">
         <v>55</v>
       </c>
       <c r="G77" t="n">
-        <v>1.89525038872822</v>
-      </c>
-      <c r="H77"/>
-      <c r="I77"/>
+        <v>1.88593144450215</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2172579</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -4930,22 +4930,22 @@
         <v>37</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.738324676384694</v>
+        <v>1.13399811763262</v>
       </c>
       <c r="E78" t="n">
-        <v>19398954.9671108</v>
+        <v>2204250.93835176</v>
       </c>
       <c r="F78" t="s">
         <v>55</v>
       </c>
       <c r="G78" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H78" t="n">
         <v>2019</v>
       </c>
       <c r="I78" t="n">
-        <v>2172579</v>
+        <v>2347706</v>
       </c>
     </row>
     <row r="79">
@@ -4956,25 +4956,25 @@
         <v>209</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
-        <v>1.13399811763262</v>
+        <v>3.49603121215929</v>
       </c>
       <c r="E79" t="n">
-        <v>2204250.93835176</v>
+        <v>16312681.1659255</v>
       </c>
       <c r="F79" t="s">
         <v>55</v>
       </c>
       <c r="G79" t="n">
-        <v>1.89525038872822</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H79" t="n">
         <v>2019</v>
       </c>
       <c r="I79" t="n">
-        <v>2347706</v>
+        <v>3720382</v>
       </c>
     </row>
     <row r="80">
@@ -4985,25 +4985,25 @@
         <v>211</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D80" t="n">
-        <v>3.50423366855879</v>
+        <v>-1.54448336565771</v>
       </c>
       <c r="E80" t="n">
-        <v>16356443.0419854</v>
+        <v>827539341.487234</v>
       </c>
       <c r="F80" t="s">
         <v>55</v>
       </c>
       <c r="G80" t="n">
-        <v>1.21269100640971</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H80" t="n">
         <v>2019</v>
       </c>
       <c r="I80" t="n">
-        <v>3720382</v>
+        <v>83132799</v>
       </c>
     </row>
     <row r="81">
@@ -5014,25 +5014,25 @@
         <v>213</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.44121673511938</v>
+        <v>5.95975301855622</v>
       </c>
       <c r="E81" t="n">
-        <v>846957214.951814</v>
+        <v>38900578.8170984</v>
       </c>
       <c r="F81" t="s">
         <v>55</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.615155999674455</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H81" t="n">
         <v>2019</v>
       </c>
       <c r="I81" t="n">
-        <v>83132799</v>
+        <v>30417856</v>
       </c>
     </row>
     <row r="82">
@@ -5043,25 +5043,25 @@
         <v>215</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>5.957369756174</v>
+        <v>5.74365484432438</v>
       </c>
       <c r="E82" t="n">
-        <v>38919926.9922648</v>
+        <v>821773.465161145</v>
       </c>
       <c r="F82" t="s">
         <v>55</v>
       </c>
       <c r="G82" t="n">
-        <v>1.89525038872822</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H82" t="n">
         <v>2019</v>
       </c>
       <c r="I82" t="n">
-        <v>30417856</v>
+        <v>33701</v>
       </c>
     </row>
     <row r="83">
@@ -5075,22 +5075,22 @@
         <v>39</v>
       </c>
       <c r="D83" t="n">
-        <v>5.74365484432438</v>
+        <v>-2.81009116341682</v>
       </c>
       <c r="E83" t="n">
-        <v>821773.465161145</v>
+        <v>88668198.702347</v>
       </c>
       <c r="F83" t="s">
         <v>55</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H83" t="n">
         <v>2019</v>
       </c>
       <c r="I83" t="n">
-        <v>33701</v>
+        <v>10716322</v>
       </c>
     </row>
     <row r="84">
@@ -5104,22 +5104,22 @@
         <v>39</v>
       </c>
       <c r="D84" t="n">
-        <v>-3.04682600855077</v>
+        <v>-2.23797697694849</v>
       </c>
       <c r="E84" t="n">
-        <v>84102875.7013153</v>
+        <v>593498.541698802</v>
       </c>
       <c r="F84" t="s">
         <v>55</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H84" t="n">
         <v>2019</v>
       </c>
       <c r="I84" t="n">
-        <v>10716322</v>
+        <v>56225</v>
       </c>
     </row>
     <row r="85">
@@ -5130,25 +5130,25 @@
         <v>221</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" t="n">
-        <v>-2.23797697694849</v>
+        <v>-0.747255691789761</v>
       </c>
       <c r="E85" t="n">
-        <v>593498.541698802</v>
+        <v>278195.673442036</v>
       </c>
       <c r="F85" t="s">
         <v>55</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.615155999674455</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H85" t="n">
         <v>2019</v>
       </c>
       <c r="I85" t="n">
-        <v>56225</v>
+        <v>112003</v>
       </c>
     </row>
     <row r="86">
@@ -5162,23 +5162,19 @@
         <v>41</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.721840890924841</v>
+        <v>-0.89059067165389</v>
       </c>
       <c r="E86" t="n">
-        <v>281239.4752967</v>
+        <v>2163848.26703105</v>
       </c>
       <c r="F86" t="s">
         <v>55</v>
       </c>
       <c r="G86" t="n">
-        <v>0.604685265666549</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I86" t="n">
-        <v>112003</v>
-      </c>
+        <v>0.560492995259265</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -5188,22 +5184,26 @@
         <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.89059067165389</v>
+        <v>0.620523811633111</v>
       </c>
       <c r="E87" t="n">
-        <v>2163848.26703105</v>
+        <v>65379.3671893116</v>
       </c>
       <c r="F87" t="s">
         <v>55</v>
       </c>
       <c r="G87" t="n">
-        <v>0.604685265666549</v>
-      </c>
-      <c r="H87"/>
-      <c r="I87"/>
+        <v>2.42141644222735</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I87" t="n">
+        <v>167294</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -5213,25 +5213,25 @@
         <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>0.620523811633111</v>
+        <v>4.21541700203198</v>
       </c>
       <c r="E88" t="n">
-        <v>65379.3671893116</v>
+        <v>42551101.4452677</v>
       </c>
       <c r="F88" t="s">
         <v>55</v>
       </c>
       <c r="G88" t="n">
-        <v>2.46988231480199</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H88" t="n">
         <v>2019</v>
       </c>
       <c r="I88" t="n">
-        <v>167294</v>
+        <v>16604026</v>
       </c>
     </row>
     <row r="89">
@@ -5242,25 +5242,25 @@
         <v>229</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D89" t="n">
-        <v>4.29631993678783</v>
+        <v>3.90064234636192</v>
       </c>
       <c r="E89" t="n">
-        <v>44317371.1569077</v>
+        <v>25756022.2379835</v>
       </c>
       <c r="F89" t="s">
         <v>55</v>
       </c>
       <c r="G89" t="n">
-        <v>0.604685265666549</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H89" t="n">
         <v>2019</v>
       </c>
       <c r="I89" t="n">
-        <v>16604026</v>
+        <v>12771246</v>
       </c>
     </row>
     <row r="90">
@@ -5274,22 +5274,22 @@
         <v>37</v>
       </c>
       <c r="D90" t="n">
-        <v>3.90064234636192</v>
+        <v>1.7895384405392</v>
       </c>
       <c r="E90" t="n">
-        <v>25756022.2379835</v>
+        <v>3028159.8659083</v>
       </c>
       <c r="F90" t="s">
         <v>55</v>
       </c>
       <c r="G90" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H90" t="n">
         <v>2019</v>
       </c>
       <c r="I90" t="n">
-        <v>12771246</v>
+        <v>1920922</v>
       </c>
     </row>
     <row r="91">
@@ -5300,25 +5300,25 @@
         <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D91" t="n">
-        <v>1.7895384405392</v>
+        <v>1.3569949465019</v>
       </c>
       <c r="E91" t="n">
-        <v>3028159.8659083</v>
+        <v>5075760.6697705</v>
       </c>
       <c r="F91" t="s">
         <v>55</v>
       </c>
       <c r="G91" t="n">
-        <v>1.89525038872822</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H91" t="n">
         <v>2019</v>
       </c>
       <c r="I91" t="n">
-        <v>1920922</v>
+        <v>782766</v>
       </c>
     </row>
     <row r="92">
@@ -5332,22 +5332,22 @@
         <v>41</v>
       </c>
       <c r="D92" t="n">
-        <v>1.3569949465019</v>
+        <v>1.81496877513996</v>
       </c>
       <c r="E92" t="n">
-        <v>5075760.6697705</v>
+        <v>14159723.6372044</v>
       </c>
       <c r="F92" t="s">
         <v>55</v>
       </c>
       <c r="G92" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H92" t="n">
         <v>2019</v>
       </c>
       <c r="I92" t="n">
-        <v>782766</v>
+        <v>11263077</v>
       </c>
     </row>
     <row r="93">
@@ -5358,26 +5358,22 @@
         <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.81496877513996</v>
+        <v>39</v>
+      </c>
+      <c r="D93" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E93" t="n">
-        <v>14159723.6372044</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
         <v>55</v>
       </c>
       <c r="G93" t="n">
-        <v>0.604685265666549</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11263077</v>
-      </c>
+        <v>-0.881735158717378</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -5387,22 +5383,26 @@
         <v>239</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" t="e">
-        <v>#NUM!</v>
+        <v>41</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.31431686796515</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>23630676.8974026</v>
       </c>
       <c r="F94" t="s">
         <v>55</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.615155999674455</v>
-      </c>
-      <c r="H94"/>
-      <c r="I94"/>
+        <v>0.560492995259265</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I94" t="n">
+        <v>9746117</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -5412,25 +5412,25 @@
         <v>241</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
-        <v>2.31431686796515</v>
+        <v>0.110026702385158</v>
       </c>
       <c r="E95" t="n">
-        <v>23630676.8974026</v>
+        <v>48582590.7151327</v>
       </c>
       <c r="F95" t="s">
         <v>55</v>
       </c>
       <c r="G95" t="n">
-        <v>0.604685265666549</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H95" t="n">
         <v>2019</v>
       </c>
       <c r="I95" t="n">
-        <v>9746117</v>
+        <v>7507400</v>
       </c>
     </row>
     <row r="96">
@@ -5441,25 +5441,25 @@
         <v>243</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D96" t="n">
-        <v>0.122825899859902</v>
+        <v>-0.170221518374403</v>
       </c>
       <c r="E96" t="n">
-        <v>48798084.8191327</v>
+        <v>67570523.0391528</v>
       </c>
       <c r="F96" t="s">
         <v>55</v>
       </c>
       <c r="G96" t="n">
-        <v>2.46988231480199</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H96" t="n">
         <v>2019</v>
       </c>
       <c r="I96" t="n">
-        <v>7507400</v>
+        <v>9769949</v>
       </c>
     </row>
     <row r="97">
@@ -5473,22 +5473,22 @@
         <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.322917972042969</v>
+        <v>-0.413101076729228</v>
       </c>
       <c r="E97" t="n">
-        <v>67295650.2810508</v>
+        <v>4838169.10588175</v>
       </c>
       <c r="F97" t="s">
         <v>55</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H97" t="n">
         <v>2019</v>
       </c>
       <c r="I97" t="n">
-        <v>9769949</v>
+        <v>361313</v>
       </c>
     </row>
     <row r="98">
@@ -5499,25 +5499,25 @@
         <v>247</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D98" t="n">
-        <v>0.249917291029345</v>
+        <v>2.95466898236261</v>
       </c>
       <c r="E98" t="n">
-        <v>5001417.40563236</v>
+        <v>3660143649.5062</v>
       </c>
       <c r="F98" t="s">
         <v>55</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H98" t="n">
         <v>2019</v>
       </c>
       <c r="I98" t="n">
-        <v>361313</v>
+        <v>1366417754</v>
       </c>
     </row>
     <row r="99">
@@ -5531,22 +5531,22 @@
         <v>38</v>
       </c>
       <c r="D99" t="n">
-        <v>2.95917419106011</v>
+        <v>4.42549563058603</v>
       </c>
       <c r="E99" t="n">
-        <v>3674952255.73078</v>
+        <v>1157840393.83199</v>
       </c>
       <c r="F99" t="s">
         <v>55</v>
       </c>
       <c r="G99" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H99" t="n">
         <v>2019</v>
       </c>
       <c r="I99" t="n">
-        <v>1366417754</v>
+        <v>270625568</v>
       </c>
     </row>
     <row r="100">
@@ -5557,25 +5557,25 @@
         <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D100" t="n">
-        <v>4.42673951833303</v>
+        <v>2.09070204280322</v>
       </c>
       <c r="E100" t="n">
-        <v>1159712413.34203</v>
+        <v>964755226.233031</v>
       </c>
       <c r="F100" t="s">
         <v>55</v>
       </c>
       <c r="G100" t="n">
-        <v>2.46988231480199</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H100" t="n">
         <v>2019</v>
       </c>
       <c r="I100" t="n">
-        <v>270625568</v>
+        <v>82913906</v>
       </c>
     </row>
     <row r="101">
@@ -5589,22 +5589,22 @@
         <v>42</v>
       </c>
       <c r="D101" t="n">
-        <v>2.1044335016335</v>
+        <v>6.58544743918461</v>
       </c>
       <c r="E101" t="n">
-        <v>969530833.36587</v>
+        <v>394564104.653894</v>
       </c>
       <c r="F101" t="s">
         <v>55</v>
       </c>
       <c r="G101" t="n">
-        <v>2.4617820935279</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H101" t="n">
         <v>2019</v>
       </c>
       <c r="I101" t="n">
-        <v>82913906</v>
+        <v>39309783</v>
       </c>
     </row>
     <row r="102">
@@ -5615,25 +5615,25 @@
         <v>255</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D102" t="n">
-        <v>6.58417132860512</v>
+        <v>-0.13339337009638</v>
       </c>
       <c r="E102" t="n">
-        <v>394731580.325894</v>
+        <v>67399778.6789133</v>
       </c>
       <c r="F102" t="s">
         <v>55</v>
       </c>
       <c r="G102" t="n">
-        <v>2.4617820935279</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H102" t="n">
         <v>2019</v>
       </c>
       <c r="I102" t="n">
-        <v>39309783</v>
+        <v>4941444</v>
       </c>
     </row>
     <row r="103">
@@ -5644,25 +5644,25 @@
         <v>257</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.118092060766029</v>
+        <v>0.014002216505804</v>
       </c>
       <c r="E103" t="n">
-        <v>67822602.1566324</v>
+        <v>85251771.6595016</v>
       </c>
       <c r="F103" t="s">
         <v>55</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H103" t="n">
         <v>2019</v>
       </c>
       <c r="I103" t="n">
-        <v>4941444</v>
+        <v>9053300</v>
       </c>
     </row>
     <row r="104">
@@ -5673,25 +5673,25 @@
         <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D104" t="n">
-        <v>0.238338363959767</v>
+        <v>-2.32287644709244</v>
       </c>
       <c r="E104" t="n">
-        <v>90501623.935256</v>
+        <v>412023515.351672</v>
       </c>
       <c r="F104" t="s">
         <v>55</v>
       </c>
       <c r="G104" t="n">
-        <v>2.4617820935279</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H104" t="n">
         <v>2019</v>
       </c>
       <c r="I104" t="n">
-        <v>9053300</v>
+        <v>60297396</v>
       </c>
     </row>
     <row r="105">
@@ -5702,25 +5702,25 @@
         <v>261</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.26010174540936</v>
+        <v>1.48674613421051</v>
       </c>
       <c r="E105" t="n">
-        <v>419113828.278323</v>
+        <v>10150278.1241754</v>
       </c>
       <c r="F105" t="s">
         <v>55</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.615155999674455</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H105" t="n">
         <v>2019</v>
       </c>
       <c r="I105" t="n">
-        <v>60297396</v>
+        <v>2948279</v>
       </c>
     </row>
     <row r="106">
@@ -5731,25 +5731,25 @@
         <v>263</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D106" t="n">
-        <v>1.55794807266312</v>
+        <v>-0.688659472111752</v>
       </c>
       <c r="E106" t="n">
-        <v>10337042.1468988</v>
+        <v>1245616467.2354</v>
       </c>
       <c r="F106" t="s">
         <v>55</v>
       </c>
       <c r="G106" t="n">
-        <v>0.604685265666549</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H106" t="n">
         <v>2019</v>
       </c>
       <c r="I106" t="n">
-        <v>2948279</v>
+        <v>126264931</v>
       </c>
     </row>
     <row r="107">
@@ -5760,25 +5760,25 @@
         <v>265</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.17387832972432</v>
+        <v>3.33230812166638</v>
       </c>
       <c r="E107" t="n">
-        <v>1376674500.36087</v>
+        <v>34624686.0241394</v>
       </c>
       <c r="F107" t="s">
         <v>55</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H107" t="n">
         <v>2019</v>
       </c>
       <c r="I107" t="n">
-        <v>126264931</v>
+        <v>10101694</v>
       </c>
     </row>
     <row r="108">
@@ -5789,25 +5789,25 @@
         <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D108" t="n">
-        <v>3.37344566149216</v>
+        <v>1.61741415919785</v>
       </c>
       <c r="E108" t="n">
-        <v>35040194.4468504</v>
+        <v>372310207.660297</v>
       </c>
       <c r="F108" t="s">
         <v>55</v>
       </c>
       <c r="G108" t="n">
-        <v>2.4617820935279</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H108" t="n">
         <v>2019</v>
       </c>
       <c r="I108" t="n">
-        <v>10101694</v>
+        <v>18513930</v>
       </c>
     </row>
     <row r="109">
@@ -5818,25 +5818,25 @@
         <v>269</v>
       </c>
       <c r="C109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D109" t="n">
-        <v>1.62208089130675</v>
+        <v>1.59267727115446</v>
       </c>
       <c r="E109" t="n">
-        <v>370783514.443712</v>
+        <v>96478659.2796878</v>
       </c>
       <c r="F109" t="s">
         <v>55</v>
       </c>
       <c r="G109" t="n">
-        <v>1.21269100640971</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H109" t="n">
         <v>2019</v>
       </c>
       <c r="I109" t="n">
-        <v>18513930</v>
+        <v>52573973</v>
       </c>
     </row>
     <row r="110">
@@ -5847,25 +5847,25 @@
         <v>271</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D110" t="n">
-        <v>1.59267727115446</v>
+        <v>2.90675795420183</v>
       </c>
       <c r="E110" t="n">
-        <v>96478659.2796878</v>
+        <v>100473.257321361</v>
       </c>
       <c r="F110" t="s">
         <v>55</v>
       </c>
       <c r="G110" t="n">
-        <v>1.89525038872822</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H110" t="n">
         <v>2019</v>
       </c>
       <c r="I110" t="n">
-        <v>52573973</v>
+        <v>117606</v>
       </c>
     </row>
     <row r="111">
@@ -5879,23 +5879,19 @@
         <v>38</v>
       </c>
       <c r="D111" t="n">
-        <v>2.90675795420183</v>
+        <v>-5.44432190418661</v>
       </c>
       <c r="E111" t="n">
-        <v>100473.257321361</v>
+        <v>48045916.5929712</v>
       </c>
       <c r="F111" t="s">
         <v>55</v>
       </c>
       <c r="G111" t="n">
-        <v>2.46988231480199</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I111" t="n">
-        <v>117606</v>
-      </c>
+        <v>2.42141644222735</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -5908,19 +5904,23 @@
         <v>38</v>
       </c>
       <c r="D112" t="n">
-        <v>-4.33613942293725</v>
+        <v>1.02444028265731</v>
       </c>
       <c r="E112" t="n">
-        <v>56891684.6433712</v>
+        <v>724994514.038211</v>
       </c>
       <c r="F112" t="s">
         <v>55</v>
       </c>
       <c r="G112" t="n">
-        <v>2.46988231480199</v>
-      </c>
-      <c r="H112"/>
-      <c r="I112"/>
+        <v>2.42141644222735</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I112" t="n">
+        <v>51709098</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -5930,25 +5930,25 @@
         <v>277</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05225252958159</v>
+        <v>1.84856585593627</v>
       </c>
       <c r="E113" t="n">
-        <v>730193315.668825</v>
+        <v>138256044.345108</v>
       </c>
       <c r="F113" t="s">
         <v>55</v>
       </c>
       <c r="G113" t="n">
-        <v>2.46988231480199</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H113" t="n">
         <v>2019</v>
       </c>
       <c r="I113" t="n">
-        <v>51709098</v>
+        <v>4207083</v>
       </c>
     </row>
     <row r="114">
@@ -5959,25 +5959,25 @@
         <v>279</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D114" t="n">
-        <v>1.91957523987509</v>
+        <v>5.75955455064081</v>
       </c>
       <c r="E114" t="n">
-        <v>141110191.701884</v>
+        <v>23435924.3439793</v>
       </c>
       <c r="F114" t="s">
         <v>55</v>
       </c>
       <c r="G114" t="n">
-        <v>2.4617820935279</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H114" t="n">
         <v>2019</v>
       </c>
       <c r="I114" t="n">
-        <v>4207083</v>
+        <v>6456900</v>
       </c>
     </row>
     <row r="115">
@@ -5988,25 +5988,25 @@
         <v>281</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D115" t="n">
-        <v>5.7633685369991</v>
+        <v>11.0934054488449</v>
       </c>
       <c r="E115" t="n">
-        <v>23531766.7529885</v>
+        <v>37642718.5497191</v>
       </c>
       <c r="F115" t="s">
         <v>55</v>
       </c>
       <c r="G115" t="n">
-        <v>1.21269100640971</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H115" t="n">
         <v>2019</v>
       </c>
       <c r="I115" t="n">
-        <v>6456900</v>
+        <v>7169455</v>
       </c>
     </row>
     <row r="116">
@@ -6017,25 +6017,25 @@
         <v>283</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D116" t="n">
-        <v>11.0934054488449</v>
+        <v>0.0959189674919925</v>
       </c>
       <c r="E116" t="n">
-        <v>37642718.5497191</v>
+        <v>13253570.9835958</v>
       </c>
       <c r="F116" t="s">
         <v>55</v>
       </c>
       <c r="G116" t="n">
-        <v>2.46988231480199</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H116" t="n">
         <v>2019</v>
       </c>
       <c r="I116" t="n">
-        <v>7169455</v>
+        <v>1912789</v>
       </c>
     </row>
     <row r="117">
@@ -6046,25 +6046,25 @@
         <v>285</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D117" t="n">
-        <v>0.594648244359552</v>
+        <v>3.62499472519688</v>
       </c>
       <c r="E117" t="n">
-        <v>15260395.988308</v>
+        <v>33525798.7061478</v>
       </c>
       <c r="F117" t="s">
         <v>55</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H117" t="n">
         <v>2019</v>
       </c>
       <c r="I117" t="n">
-        <v>1912789</v>
+        <v>6855713</v>
       </c>
     </row>
     <row r="118">
@@ -6075,25 +6075,25 @@
         <v>287</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D118" t="n">
-        <v>3.62499472519688</v>
+        <v>0.811640797187008</v>
       </c>
       <c r="E118" t="n">
-        <v>33525798.7061478</v>
+        <v>3009259.52950528</v>
       </c>
       <c r="F118" t="s">
         <v>55</v>
       </c>
       <c r="G118" t="n">
-        <v>2.4617820935279</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H118" t="n">
         <v>2019</v>
       </c>
       <c r="I118" t="n">
-        <v>6855713</v>
+        <v>2125268</v>
       </c>
     </row>
     <row r="119">
@@ -6107,22 +6107,22 @@
         <v>37</v>
       </c>
       <c r="D119" t="n">
-        <v>0.811640797187008</v>
+        <v>3.97469153367582</v>
       </c>
       <c r="E119" t="n">
-        <v>3009259.52950528</v>
+        <v>4439234.95153434</v>
       </c>
       <c r="F119" t="s">
         <v>55</v>
       </c>
       <c r="G119" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H119" t="n">
         <v>2019</v>
       </c>
       <c r="I119" t="n">
-        <v>2125268</v>
+        <v>4937374</v>
       </c>
     </row>
     <row r="120">
@@ -6136,22 +6136,22 @@
         <v>37</v>
       </c>
       <c r="D120" t="n">
-        <v>4.01916473732307</v>
+        <v>-2.85329687772297</v>
       </c>
       <c r="E120" t="n">
-        <v>4495863.03301194</v>
+        <v>80131765.0966057</v>
       </c>
       <c r="F120" t="s">
         <v>55</v>
       </c>
       <c r="G120" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H120" t="n">
         <v>2019</v>
       </c>
       <c r="I120" t="n">
-        <v>4937374</v>
+        <v>6777452</v>
       </c>
     </row>
     <row r="121">
@@ -6162,25 +6162,25 @@
         <v>293</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.81997133505096</v>
+        <v>-0.077544472029123</v>
       </c>
       <c r="E121" t="n">
-        <v>80677459.3366057</v>
+        <v>22911153.8557393</v>
       </c>
       <c r="F121" t="s">
         <v>55</v>
       </c>
       <c r="G121" t="n">
-        <v>1.89525038872822</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H121" t="n">
         <v>2019</v>
       </c>
       <c r="I121" t="n">
-        <v>6777452</v>
+        <v>2786844</v>
       </c>
     </row>
     <row r="122">
@@ -6194,22 +6194,22 @@
         <v>39</v>
       </c>
       <c r="D122" t="n">
-        <v>0.449389414185619</v>
+        <v>-1.52357858697411</v>
       </c>
       <c r="E122" t="n">
-        <v>25374586.5955281</v>
+        <v>10694170.4636843</v>
       </c>
       <c r="F122" t="s">
         <v>55</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H122" t="n">
         <v>2019</v>
       </c>
       <c r="I122" t="n">
-        <v>2786844</v>
+        <v>619896</v>
       </c>
     </row>
     <row r="123">
@@ -6220,25 +6220,25 @@
         <v>297</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.52731789465338</v>
+        <v>8.02166388556467</v>
       </c>
       <c r="E123" t="n">
-        <v>10795146.804951</v>
+        <v>2450136.81664823</v>
       </c>
       <c r="F123" t="s">
         <v>55</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H123" t="n">
         <v>2019</v>
       </c>
       <c r="I123" t="n">
-        <v>619896</v>
+        <v>640445</v>
       </c>
     </row>
     <row r="124">
@@ -6249,25 +6249,25 @@
         <v>299</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D124" t="n">
-        <v>8.02166388556467</v>
+        <v>-0.380516361584904</v>
       </c>
       <c r="E124" t="n">
-        <v>2450136.81664823</v>
+        <v>11008249.3947837</v>
       </c>
       <c r="F124" t="s">
         <v>55</v>
       </c>
       <c r="G124" t="n">
-        <v>2.46988231480199</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H124" t="n">
         <v>2019</v>
       </c>
       <c r="I124" t="n">
-        <v>640445</v>
+        <v>2083459</v>
       </c>
     </row>
     <row r="125">
@@ -6281,16 +6281,16 @@
         <v>37</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33611739527544</v>
+        <v>1.33390726898044</v>
       </c>
       <c r="E125" t="n">
-        <v>33757104.1400733</v>
+        <v>33735833.8942096</v>
       </c>
       <c r="F125" t="s">
         <v>55</v>
       </c>
       <c r="G125" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H125" t="n">
         <v>2019</v>
@@ -6319,7 +6319,7 @@
         <v>55</v>
       </c>
       <c r="G126" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H126" t="n">
         <v>2019</v>
@@ -6339,16 +6339,16 @@
         <v>38</v>
       </c>
       <c r="D127" t="n">
-        <v>1.81264042620712</v>
+        <v>1.79807637432088</v>
       </c>
       <c r="E127" t="n">
-        <v>333969272.442213</v>
+        <v>333805226.91192</v>
       </c>
       <c r="F127" t="s">
         <v>55</v>
       </c>
       <c r="G127" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H127" t="n">
         <v>2019</v>
@@ -6377,7 +6377,7 @@
         <v>55</v>
       </c>
       <c r="G128" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H128" t="n">
         <v>2019</v>
@@ -6406,7 +6406,7 @@
         <v>55</v>
       </c>
       <c r="G129" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H129" t="n">
         <v>2019</v>
@@ -6426,16 +6426,16 @@
         <v>39</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.69631180722585</v>
+        <v>-3.99146278601781</v>
       </c>
       <c r="E130" t="n">
-        <v>2436130.42896642</v>
+        <v>2122163.82369673</v>
       </c>
       <c r="F130" t="s">
         <v>55</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H130" t="n">
         <v>2019</v>
@@ -6464,7 +6464,7 @@
         <v>55</v>
       </c>
       <c r="G131" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H131" t="n">
         <v>2019</v>
@@ -6493,7 +6493,7 @@
         <v>55</v>
       </c>
       <c r="G132" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
@@ -6518,7 +6518,7 @@
         <v>55</v>
       </c>
       <c r="G133" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H133" t="n">
         <v>2019</v>
@@ -6538,16 +6538,16 @@
         <v>37</v>
       </c>
       <c r="D134" t="n">
-        <v>0.753775509948618</v>
+        <v>0.698541677840225</v>
       </c>
       <c r="E134" t="n">
-        <v>4846991.75343347</v>
+        <v>4788206.79976744</v>
       </c>
       <c r="F134" t="s">
         <v>55</v>
       </c>
       <c r="G134" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H134" t="n">
         <v>2019</v>
@@ -6576,7 +6576,7 @@
         <v>55</v>
       </c>
       <c r="G135" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
@@ -6592,16 +6592,16 @@
         <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>0.375253509674223</v>
+        <v>0.264327877285409</v>
       </c>
       <c r="E136" t="n">
-        <v>798119500.702885</v>
+        <v>781470809.033407</v>
       </c>
       <c r="F136" t="s">
         <v>55</v>
       </c>
       <c r="G136" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H136" t="n">
         <v>2019</v>
@@ -6630,7 +6630,7 @@
         <v>55</v>
       </c>
       <c r="G137" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H137" t="n">
         <v>2019</v>
@@ -6650,16 +6650,16 @@
         <v>40</v>
       </c>
       <c r="D138" t="n">
-        <v>0.664505944490101</v>
+        <v>0.653003526119211</v>
       </c>
       <c r="E138" t="n">
-        <v>12394314.1511516</v>
+        <v>12364147.60917</v>
       </c>
       <c r="F138" t="s">
         <v>55</v>
       </c>
       <c r="G138" t="n">
-        <v>1.21269100640971</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H138" t="n">
         <v>2019</v>
@@ -6688,7 +6688,7 @@
         <v>55</v>
       </c>
       <c r="G139" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H139" t="n">
         <v>2019</v>
@@ -6717,7 +6717,7 @@
         <v>55</v>
       </c>
       <c r="G140" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
@@ -6742,7 +6742,7 @@
         <v>55</v>
       </c>
       <c r="G141" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H141" t="n">
         <v>2019</v>
@@ -6762,16 +6762,16 @@
         <v>37</v>
       </c>
       <c r="D142" t="n">
-        <v>9.07400570586177</v>
+        <v>9.1253929016728</v>
       </c>
       <c r="E142" t="n">
-        <v>35299276.3786434</v>
+        <v>34880554.1504364</v>
       </c>
       <c r="F142" t="s">
         <v>55</v>
       </c>
       <c r="G142" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H142" t="n">
         <v>2019</v>
@@ -6800,7 +6800,7 @@
         <v>55</v>
       </c>
       <c r="G143" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H143" t="n">
         <v>2019</v>
@@ -6829,7 +6829,7 @@
         <v>55</v>
       </c>
       <c r="G144" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H144" t="n">
         <v>2019</v>
@@ -6858,7 +6858,7 @@
         <v>55</v>
       </c>
       <c r="G145" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H145" t="n">
         <v>2019</v>
@@ -6887,7 +6887,7 @@
         <v>55</v>
       </c>
       <c r="G146" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H146" t="n">
         <v>2019</v>
@@ -6907,16 +6907,16 @@
         <v>39</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.77759429350115</v>
+        <v>-1.74256359591788</v>
       </c>
       <c r="E147" t="n">
-        <v>195060084.89341</v>
+        <v>192023269.301097</v>
       </c>
       <c r="F147" t="s">
         <v>55</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H147" t="n">
         <v>2019</v>
@@ -6945,7 +6945,7 @@
         <v>55</v>
       </c>
       <c r="G148" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
@@ -6970,7 +6970,7 @@
         <v>55</v>
       </c>
       <c r="G149" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H149" t="n">
         <v>2019</v>
@@ -6990,16 +6990,16 @@
         <v>39</v>
       </c>
       <c r="D150" t="n">
-        <v>0.457952658489069</v>
+        <v>0.353601237708356</v>
       </c>
       <c r="E150" t="n">
-        <v>89374303.4717203</v>
+        <v>88088218.26071</v>
       </c>
       <c r="F150" t="s">
         <v>55</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H150" t="n">
         <v>2019</v>
@@ -7028,7 +7028,7 @@
         <v>55</v>
       </c>
       <c r="G151" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H151" t="n">
         <v>2019</v>
@@ -7057,7 +7057,7 @@
         <v>55</v>
       </c>
       <c r="G152" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H152" t="n">
         <v>2019</v>
@@ -7077,16 +7077,16 @@
         <v>37</v>
       </c>
       <c r="D153" t="n">
-        <v>1.5447906941878</v>
+        <v>1.52682827022665</v>
       </c>
       <c r="E153" t="n">
-        <v>409561772.577945</v>
+        <v>407570823.425777</v>
       </c>
       <c r="F153" t="s">
         <v>55</v>
       </c>
       <c r="G153" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H153" t="n">
         <v>2019</v>
@@ -7115,7 +7115,7 @@
         <v>55</v>
       </c>
       <c r="G154" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
@@ -7140,7 +7140,7 @@
         <v>55</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
@@ -7153,25 +7153,25 @@
         <v>363</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.215512673017793</v>
+        <v>0.261828285897225</v>
       </c>
       <c r="E156" t="n">
-        <v>11403304.3287977</v>
+        <v>3401.46688591363</v>
       </c>
       <c r="F156" t="s">
         <v>55</v>
       </c>
       <c r="G156" t="n">
-        <v>1.21269100640971</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H156" t="n">
         <v>2019</v>
       </c>
       <c r="I156" t="n">
-        <v>2083459</v>
+        <v>57216</v>
       </c>
     </row>
     <row r="157">
@@ -7182,25 +7182,25 @@
         <v>365</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D157" t="n">
-        <v>0.261828285897225</v>
+        <v>-0.567488525338089</v>
       </c>
       <c r="E157" t="n">
-        <v>3401.46688591363</v>
+        <v>72365361.5706519</v>
       </c>
       <c r="F157" t="s">
         <v>55</v>
       </c>
       <c r="G157" t="n">
-        <v>2.46988231480199</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H157" t="n">
         <v>2019</v>
       </c>
       <c r="I157" t="n">
-        <v>57216</v>
+        <v>5347896</v>
       </c>
     </row>
     <row r="158">
@@ -7211,25 +7211,25 @@
         <v>367</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.122999433437321</v>
+        <v>4.68998432985439</v>
       </c>
       <c r="E158" t="n">
-        <v>75821730.2484898</v>
+        <v>126610798.474324</v>
       </c>
       <c r="F158" t="s">
         <v>55</v>
       </c>
       <c r="G158" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H158" t="n">
         <v>2019</v>
       </c>
       <c r="I158" t="n">
-        <v>5347896</v>
+        <v>4974986</v>
       </c>
     </row>
     <row r="159">
@@ -7240,25 +7240,25 @@
         <v>369</v>
       </c>
       <c r="C159" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D159" t="n">
-        <v>4.74596183211491</v>
+        <v>3.20436322895397</v>
       </c>
       <c r="E159" t="n">
-        <v>127445450.199642</v>
+        <v>516245087.222965</v>
       </c>
       <c r="F159" t="s">
         <v>55</v>
       </c>
       <c r="G159" t="n">
-        <v>2.4617820935279</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H159" t="n">
         <v>2019</v>
       </c>
       <c r="I159" t="n">
-        <v>4974986</v>
+        <v>216565318</v>
       </c>
     </row>
     <row r="160">
@@ -7272,22 +7272,22 @@
         <v>38</v>
       </c>
       <c r="D160" t="n">
-        <v>3.20564899164322</v>
+        <v>-5.21441241853731</v>
       </c>
       <c r="E160" t="n">
-        <v>517756658.878768</v>
+        <v>1357068.23768134</v>
       </c>
       <c r="F160" t="s">
         <v>55</v>
       </c>
       <c r="G160" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H160" t="n">
         <v>2019</v>
       </c>
       <c r="I160" t="n">
-        <v>216565318</v>
+        <v>18008</v>
       </c>
     </row>
     <row r="161">
@@ -7298,25 +7298,25 @@
         <v>373</v>
       </c>
       <c r="C161" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D161" t="n">
-        <v>-5.21441241853731</v>
+        <v>0.636456349574233</v>
       </c>
       <c r="E161" t="n">
-        <v>1357068.23768134</v>
+        <v>16150278.8206154</v>
       </c>
       <c r="F161" t="s">
         <v>55</v>
       </c>
       <c r="G161" t="n">
-        <v>2.46988231480199</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H161" t="n">
         <v>2019</v>
       </c>
       <c r="I161" t="n">
-        <v>18008</v>
+        <v>4246439</v>
       </c>
     </row>
     <row r="162">
@@ -7327,25 +7327,25 @@
         <v>375</v>
       </c>
       <c r="C162" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D162" t="n">
-        <v>0.636456349574233</v>
+        <v>11.1836702961026</v>
       </c>
       <c r="E162" t="n">
-        <v>16150278.8206154</v>
+        <v>18035923.2449387</v>
       </c>
       <c r="F162" t="s">
         <v>55</v>
       </c>
       <c r="G162" t="n">
-        <v>0.604685265666549</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H162" t="n">
         <v>2019</v>
       </c>
       <c r="I162" t="n">
-        <v>4246439</v>
+        <v>8776109</v>
       </c>
     </row>
     <row r="163">
@@ -7356,25 +7356,25 @@
         <v>377</v>
       </c>
       <c r="C163" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D163" t="n">
-        <v>11.1504128911676</v>
+        <v>1.62497434698392</v>
       </c>
       <c r="E163" t="n">
-        <v>18265852.2518121</v>
+        <v>43984995.3111728</v>
       </c>
       <c r="F163" t="s">
         <v>55</v>
       </c>
       <c r="G163" t="n">
-        <v>2.46988231480199</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H163" t="n">
         <v>2019</v>
       </c>
       <c r="I163" t="n">
-        <v>8776109</v>
+        <v>7044636</v>
       </c>
     </row>
     <row r="164">
@@ -7388,22 +7388,22 @@
         <v>41</v>
       </c>
       <c r="D164" t="n">
-        <v>1.62497434698392</v>
+        <v>1.92088275964193</v>
       </c>
       <c r="E164" t="n">
-        <v>43984995.3111728</v>
+        <v>95079765.0160424</v>
       </c>
       <c r="F164" t="s">
         <v>55</v>
       </c>
       <c r="G164" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H164" t="n">
         <v>2019</v>
       </c>
       <c r="I164" t="n">
-        <v>7044636</v>
+        <v>32510453</v>
       </c>
     </row>
     <row r="165">
@@ -7414,25 +7414,25 @@
         <v>381</v>
       </c>
       <c r="C165" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D165" t="n">
-        <v>1.96649019546808</v>
+        <v>4.24183600712134</v>
       </c>
       <c r="E165" t="n">
-        <v>96270771.7206831</v>
+        <v>247976974.529129</v>
       </c>
       <c r="F165" t="s">
         <v>55</v>
       </c>
       <c r="G165" t="n">
-        <v>0.604685265666549</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H165" t="n">
         <v>2019</v>
       </c>
       <c r="I165" t="n">
-        <v>32510453</v>
+        <v>108116615</v>
       </c>
     </row>
     <row r="166">
@@ -7445,24 +7445,20 @@
       <c r="C166" t="s">
         <v>38</v>
       </c>
-      <c r="D166" t="n">
-        <v>4.23985454561147</v>
+      <c r="D166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E166" t="n">
-        <v>248638367.009129</v>
+        <v>0</v>
       </c>
       <c r="F166" t="s">
         <v>55</v>
       </c>
       <c r="G166" t="n">
-        <v>2.46988231480199</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I166" t="n">
-        <v>108116615</v>
-      </c>
+        <v>2.42141644222735</v>
+      </c>
+      <c r="H166"/>
+      <c r="I166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -7472,22 +7468,26 @@
         <v>385</v>
       </c>
       <c r="C167" t="s">
-        <v>38</v>
-      </c>
-      <c r="D167" t="e">
-        <v>#NUM!</v>
+        <v>39</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.503713985906096</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>417157349.849928</v>
       </c>
       <c r="F167" t="s">
         <v>55</v>
       </c>
       <c r="G167" t="n">
-        <v>2.46988231480199</v>
-      </c>
-      <c r="H167"/>
-      <c r="I167"/>
+        <v>-0.881735158717378</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I167" t="n">
+        <v>37970874</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -7500,22 +7500,22 @@
         <v>39</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.449892936327245</v>
+        <v>-0.519429101049873</v>
       </c>
       <c r="E168" t="n">
-        <v>415267196.28673</v>
+        <v>66402365.6012524</v>
       </c>
       <c r="F168" t="s">
         <v>55</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H168" t="n">
         <v>2019</v>
       </c>
       <c r="I168" t="n">
-        <v>37970874</v>
+        <v>10269417</v>
       </c>
     </row>
     <row r="169">
@@ -7526,25 +7526,25 @@
         <v>389</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.55138992088376</v>
+        <v>3.96986651079851</v>
       </c>
       <c r="E169" t="n">
-        <v>65473764.9398151</v>
+        <v>6893540.31024458</v>
       </c>
       <c r="F169" t="s">
         <v>55</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.615155999674455</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H169" t="n">
         <v>2019</v>
       </c>
       <c r="I169" t="n">
-        <v>10269417</v>
+        <v>3193694</v>
       </c>
     </row>
     <row r="170">
@@ -7555,25 +7555,25 @@
         <v>391</v>
       </c>
       <c r="C170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D170" t="n">
-        <v>3.96986651079851</v>
+        <v>3.90388180469108</v>
       </c>
       <c r="E170" t="n">
-        <v>6893540.31024458</v>
+        <v>190297870.42223</v>
       </c>
       <c r="F170" t="s">
         <v>55</v>
       </c>
       <c r="G170" t="n">
-        <v>0.604685265666549</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H170" t="n">
         <v>2019</v>
       </c>
       <c r="I170" t="n">
-        <v>3193694</v>
+        <v>2832067</v>
       </c>
     </row>
     <row r="171">
@@ -7584,26 +7584,22 @@
         <v>393</v>
       </c>
       <c r="C171" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D171" t="n">
-        <v>3.85726077698669</v>
+        <v>0.455880570271194</v>
       </c>
       <c r="E171" t="n">
-        <v>189201525.94223</v>
+        <v>3233620.85114352</v>
       </c>
       <c r="F171" t="s">
         <v>55</v>
       </c>
       <c r="G171" t="n">
-        <v>2.4617820935279</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2832067</v>
-      </c>
+        <v>1.88593144450215</v>
+      </c>
+      <c r="H171"/>
+      <c r="I171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -7613,22 +7609,26 @@
         <v>395</v>
       </c>
       <c r="C172" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D172" t="n">
-        <v>0.455880570271194</v>
+        <v>-0.261327160410951</v>
       </c>
       <c r="E172" t="n">
-        <v>3233620.85114352</v>
+        <v>119263095.574349</v>
       </c>
       <c r="F172" t="s">
         <v>55</v>
       </c>
       <c r="G172" t="n">
-        <v>1.89525038872822</v>
-      </c>
-      <c r="H172"/>
-      <c r="I172"/>
+        <v>-0.881735158717378</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I172" t="n">
+        <v>19356544</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -7638,25 +7638,25 @@
         <v>397</v>
       </c>
       <c r="C173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.26490377958579</v>
+        <v>0.576892091600656</v>
       </c>
       <c r="E173" t="n">
-        <v>118161785.014126</v>
+        <v>2370872668.5851</v>
       </c>
       <c r="F173" t="s">
         <v>55</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.615155999674455</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H173" t="n">
         <v>2019</v>
       </c>
       <c r="I173" t="n">
-        <v>19356544</v>
+        <v>144373535</v>
       </c>
     </row>
     <row r="174">
@@ -7667,25 +7667,25 @@
         <v>399</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D174" t="n">
-        <v>1.07413824713649</v>
+        <v>2.25209368260222</v>
       </c>
       <c r="E174" t="n">
-        <v>2523396251.236</v>
+        <v>7092175.32356448</v>
       </c>
       <c r="F174" t="s">
         <v>55</v>
       </c>
       <c r="G174" t="n">
-        <v>1.21269100640971</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H174" t="n">
         <v>2019</v>
       </c>
       <c r="I174" t="n">
-        <v>144373535</v>
+        <v>12626950</v>
       </c>
     </row>
     <row r="175">
@@ -7699,23 +7699,19 @@
         <v>37</v>
       </c>
       <c r="D175" t="n">
-        <v>2.37197070600896</v>
+        <v>3.6824314833138</v>
       </c>
       <c r="E175" t="n">
-        <v>7265651.88823215</v>
+        <v>21122.4864124069</v>
       </c>
       <c r="F175" t="s">
         <v>55</v>
       </c>
       <c r="G175" t="n">
-        <v>1.89525038872822</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I175" t="n">
-        <v>12626950</v>
-      </c>
+        <v>1.88593144450215</v>
+      </c>
+      <c r="H175"/>
+      <c r="I175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -7725,19 +7721,19 @@
         <v>403</v>
       </c>
       <c r="C176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D176" t="n">
-        <v>3.6824314833138</v>
+        <v>-3.75238368865757</v>
       </c>
       <c r="E176" t="n">
-        <v>21122.4864124069</v>
+        <v>58131.0557727516</v>
       </c>
       <c r="F176" t="s">
         <v>55</v>
       </c>
       <c r="G176" t="n">
-        <v>1.89525038872822</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H176"/>
       <c r="I176"/>
@@ -7750,22 +7746,26 @@
         <v>405</v>
       </c>
       <c r="C177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D177" t="n">
-        <v>-3.75238368865757</v>
+        <v>5.13832006236068</v>
       </c>
       <c r="E177" t="n">
-        <v>58131.0557727516</v>
+        <v>615173.248511992</v>
       </c>
       <c r="F177" t="s">
         <v>55</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.615155999674455</v>
-      </c>
-      <c r="H177"/>
-      <c r="I177"/>
+        <v>2.42141644222735</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I177" t="n">
+        <v>197097</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -7775,25 +7775,25 @@
         <v>407</v>
       </c>
       <c r="C178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D178" t="n">
-        <v>5.13832006236068</v>
+        <v>2.73185470680701</v>
       </c>
       <c r="E178" t="n">
-        <v>615173.248511992</v>
+        <v>257486.685665339</v>
       </c>
       <c r="F178" t="s">
         <v>55</v>
       </c>
       <c r="G178" t="n">
-        <v>2.46988231480199</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H178" t="n">
         <v>2019</v>
       </c>
       <c r="I178" t="n">
-        <v>197097</v>
+        <v>215056</v>
       </c>
     </row>
     <row r="179">
@@ -7804,25 +7804,25 @@
         <v>409</v>
       </c>
       <c r="C179" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D179" t="n">
-        <v>2.73185470680701</v>
+        <v>2.38257741956076</v>
       </c>
       <c r="E179" t="n">
-        <v>257486.685665339</v>
+        <v>736570578.0852</v>
       </c>
       <c r="F179" t="s">
         <v>55</v>
       </c>
       <c r="G179" t="n">
-        <v>1.89525038872822</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H179" t="n">
         <v>2019</v>
       </c>
       <c r="I179" t="n">
-        <v>215056</v>
+        <v>34268528</v>
       </c>
     </row>
     <row r="180">
@@ -7833,25 +7833,25 @@
         <v>411</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D180" t="n">
-        <v>2.36729447818713</v>
+        <v>2.8918353962853</v>
       </c>
       <c r="E180" t="n">
-        <v>739421685.12632</v>
+        <v>24905793.9266534</v>
       </c>
       <c r="F180" t="s">
         <v>55</v>
       </c>
       <c r="G180" t="n">
-        <v>2.4617820935279</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H180" t="n">
         <v>2019</v>
       </c>
       <c r="I180" t="n">
-        <v>34268528</v>
+        <v>16296364</v>
       </c>
     </row>
     <row r="181">
@@ -7862,26 +7862,22 @@
         <v>413</v>
       </c>
       <c r="C181" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D181" t="n">
-        <v>2.8918353962853</v>
+        <v>1.0897017944169</v>
       </c>
       <c r="E181" t="n">
-        <v>24905793.9266534</v>
+        <v>110671542.077599</v>
       </c>
       <c r="F181" t="s">
         <v>55</v>
       </c>
       <c r="G181" t="n">
-        <v>1.89525038872822</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I181" t="n">
-        <v>16296364</v>
-      </c>
+        <v>0.83906029848464</v>
+      </c>
+      <c r="H181"/>
+      <c r="I181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
@@ -7891,22 +7887,26 @@
         <v>415</v>
       </c>
       <c r="C182" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D182" t="n">
-        <v>1.62888989499284</v>
+        <v>2.5233407801748</v>
       </c>
       <c r="E182" t="n">
-        <v>126056906.767932</v>
+        <v>1331212.82065921</v>
       </c>
       <c r="F182" t="s">
         <v>55</v>
       </c>
       <c r="G182" t="n">
-        <v>1.21269100640971</v>
-      </c>
-      <c r="H182"/>
-      <c r="I182"/>
+        <v>1.88593144450215</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I182" t="n">
+        <v>97625</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
@@ -7919,22 +7919,22 @@
         <v>37</v>
       </c>
       <c r="D183" t="n">
-        <v>2.5233407801748</v>
+        <v>3.33075607889164</v>
       </c>
       <c r="E183" t="n">
-        <v>1331212.82065921</v>
+        <v>7335987.02534712</v>
       </c>
       <c r="F183" t="s">
         <v>55</v>
       </c>
       <c r="G183" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H183" t="n">
         <v>2019</v>
       </c>
       <c r="I183" t="n">
-        <v>97625</v>
+        <v>7813215</v>
       </c>
     </row>
     <row r="184">
@@ -7945,25 +7945,25 @@
         <v>419</v>
       </c>
       <c r="C184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D184" t="n">
-        <v>3.34103371792049</v>
+        <v>1.79520372506876</v>
       </c>
       <c r="E184" t="n">
-        <v>7354105.28044133</v>
+        <v>65792350.2990202</v>
       </c>
       <c r="F184" t="s">
         <v>55</v>
       </c>
       <c r="G184" t="n">
-        <v>1.89525038872822</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H184" t="n">
         <v>2019</v>
       </c>
       <c r="I184" t="n">
-        <v>7813215</v>
+        <v>5703569</v>
       </c>
     </row>
     <row r="185">
@@ -7974,25 +7974,25 @@
         <v>421</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D185" t="n">
-        <v>1.749928509668</v>
+        <v>-1.05337676863484</v>
       </c>
       <c r="E185" t="n">
-        <v>68659036.8510327</v>
+        <v>45551071.9032925</v>
       </c>
       <c r="F185" t="s">
         <v>55</v>
       </c>
       <c r="G185" t="n">
-        <v>2.46988231480199</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H185" t="n">
         <v>2019</v>
       </c>
       <c r="I185" t="n">
-        <v>5703569</v>
+        <v>5454073</v>
       </c>
     </row>
     <row r="186">
@@ -8006,22 +8006,22 @@
         <v>39</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.830966908839093</v>
+        <v>-1.52056201057998</v>
       </c>
       <c r="E186" t="n">
-        <v>47609723.2515944</v>
+        <v>20223579.0998338</v>
       </c>
       <c r="F186" t="s">
         <v>55</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H186" t="n">
         <v>2019</v>
       </c>
       <c r="I186" t="n">
-        <v>5454073</v>
+        <v>2087946</v>
       </c>
     </row>
     <row r="187">
@@ -8032,25 +8032,25 @@
         <v>425</v>
       </c>
       <c r="C187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.5164101122862</v>
+        <v>4.91481375038358</v>
       </c>
       <c r="E187" t="n">
-        <v>20525508.4959164</v>
+        <v>565337.981470385</v>
       </c>
       <c r="F187" t="s">
         <v>55</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H187" t="n">
         <v>2019</v>
       </c>
       <c r="I187" t="n">
-        <v>2087946</v>
+        <v>669823</v>
       </c>
     </row>
     <row r="188">
@@ -8061,25 +8061,25 @@
         <v>427</v>
       </c>
       <c r="C188" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D188" t="n">
-        <v>4.91481375038358</v>
+        <v>0.655421575292148</v>
       </c>
       <c r="E188" t="n">
-        <v>565337.981470385</v>
+        <v>29469357.2847061</v>
       </c>
       <c r="F188" t="s">
         <v>55</v>
       </c>
       <c r="G188" t="n">
-        <v>2.46988231480199</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H188" t="n">
         <v>2019</v>
       </c>
       <c r="I188" t="n">
-        <v>669823</v>
+        <v>15442905</v>
       </c>
     </row>
     <row r="189">
@@ -8093,22 +8093,22 @@
         <v>37</v>
       </c>
       <c r="D189" t="n">
-        <v>0.655993205827277</v>
+        <v>0.114943526700584</v>
       </c>
       <c r="E189" t="n">
-        <v>29473378.166897</v>
+        <v>576981352.086904</v>
       </c>
       <c r="F189" t="s">
         <v>55</v>
       </c>
       <c r="G189" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H189" t="n">
         <v>2019</v>
       </c>
       <c r="I189" t="n">
-        <v>15442905</v>
+        <v>58558270</v>
       </c>
     </row>
     <row r="190">
@@ -8119,26 +8119,22 @@
         <v>431</v>
       </c>
       <c r="C190" t="s">
-        <v>37</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.139640700575505</v>
+        <v>41</v>
+      </c>
+      <c r="D190" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E190" t="n">
-        <v>581698295.586612</v>
+        <v>0</v>
       </c>
       <c r="F190" t="s">
         <v>55</v>
       </c>
       <c r="G190" t="n">
-        <v>1.89525038872822</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2019</v>
-      </c>
-      <c r="I190" t="n">
-        <v>58558270</v>
-      </c>
+        <v>0.560492995259265</v>
+      </c>
+      <c r="H190"/>
+      <c r="I190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
@@ -8148,22 +8144,26 @@
         <v>433</v>
       </c>
       <c r="C191" t="s">
-        <v>41</v>
-      </c>
-      <c r="D191" t="e">
-        <v>#NUM!</v>
+        <v>39</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-1.27974945619765</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>339321804.13825</v>
       </c>
       <c r="F191" t="s">
         <v>55</v>
       </c>
       <c r="G191" t="n">
-        <v>0.604685265666549</v>
-      </c>
-      <c r="H191"/>
-      <c r="I191"/>
+        <v>-0.881735158717378</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I191" t="n">
+        <v>47076781</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
@@ -8173,25 +8173,25 @@
         <v>435</v>
       </c>
       <c r="C192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.992427611617641</v>
+        <v>3.58088099066654</v>
       </c>
       <c r="E192" t="n">
-        <v>343750766.974336</v>
+        <v>44818012.7508524</v>
       </c>
       <c r="F192" t="s">
         <v>55</v>
       </c>
       <c r="G192" t="n">
-        <v>-0.615155999674455</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H192" t="n">
         <v>2019</v>
       </c>
       <c r="I192" t="n">
-        <v>47076781</v>
+        <v>21803000</v>
       </c>
     </row>
     <row r="193">
@@ -8202,25 +8202,25 @@
         <v>437</v>
       </c>
       <c r="C193" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D193" t="n">
-        <v>3.58088099066654</v>
+        <v>-2.25710727511462</v>
       </c>
       <c r="E193" t="n">
-        <v>44818012.7508524</v>
+        <v>208647.307721658</v>
       </c>
       <c r="F193" t="s">
         <v>55</v>
       </c>
       <c r="G193" t="n">
-        <v>2.46988231480199</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H193" t="n">
         <v>2019</v>
       </c>
       <c r="I193" t="n">
-        <v>21803000</v>
+        <v>52834</v>
       </c>
     </row>
     <row r="194">
@@ -8234,22 +8234,22 @@
         <v>41</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.92611690292154</v>
+        <v>-0.537530410904885</v>
       </c>
       <c r="E194" t="n">
-        <v>220984.183728139</v>
+        <v>433793.416841927</v>
       </c>
       <c r="F194" t="s">
         <v>55</v>
       </c>
       <c r="G194" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H194" t="n">
         <v>2019</v>
       </c>
       <c r="I194" t="n">
-        <v>52834</v>
+        <v>182790</v>
       </c>
     </row>
     <row r="195">
@@ -8263,22 +8263,22 @@
         <v>41</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.537530410904885</v>
+        <v>-2.98269733484486</v>
       </c>
       <c r="E195" t="n">
-        <v>433793.416841927</v>
+        <v>198156.694148578</v>
       </c>
       <c r="F195" t="s">
         <v>55</v>
       </c>
       <c r="G195" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H195" t="n">
         <v>2019</v>
       </c>
       <c r="I195" t="n">
-        <v>182790</v>
+        <v>110589</v>
       </c>
     </row>
     <row r="196">
@@ -8289,25 +8289,25 @@
         <v>443</v>
       </c>
       <c r="C196" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D196" t="n">
-        <v>-2.78015993005536</v>
+        <v>1.25619071268788</v>
       </c>
       <c r="E196" t="n">
-        <v>204937.988356524</v>
+        <v>136161262.324015</v>
       </c>
       <c r="F196" t="s">
         <v>55</v>
       </c>
       <c r="G196" t="n">
-        <v>0.604685265666549</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H196" t="n">
         <v>2019</v>
       </c>
       <c r="I196" t="n">
-        <v>110589</v>
+        <v>42813238</v>
       </c>
     </row>
     <row r="197">
@@ -8318,25 +8318,25 @@
         <v>445</v>
       </c>
       <c r="C197" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D197" t="n">
-        <v>1.25619071268788</v>
+        <v>1.01169112333306</v>
       </c>
       <c r="E197" t="n">
-        <v>136161262.324015</v>
+        <v>3089384.65433545</v>
       </c>
       <c r="F197" t="s">
         <v>55</v>
       </c>
       <c r="G197" t="n">
-        <v>1.89525038872822</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H197" t="n">
         <v>2019</v>
       </c>
       <c r="I197" t="n">
-        <v>42813238</v>
+        <v>581363</v>
       </c>
     </row>
     <row r="198">
@@ -8347,25 +8347,25 @@
         <v>447</v>
       </c>
       <c r="C198" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D198" t="n">
-        <v>1.01169112333306</v>
+        <v>-3.31057336550957</v>
       </c>
       <c r="E198" t="n">
-        <v>3089384.65433545</v>
+        <v>3419514.07480908</v>
       </c>
       <c r="F198" t="s">
         <v>55</v>
       </c>
       <c r="G198" t="n">
-        <v>0.604685265666549</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H198" t="n">
         <v>2019</v>
       </c>
       <c r="I198" t="n">
-        <v>581363</v>
+        <v>1148130</v>
       </c>
     </row>
     <row r="199">
@@ -8379,16 +8379,16 @@
         <v>39</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.85648542060157</v>
+        <v>-1.87736455313634</v>
       </c>
       <c r="E199" t="n">
-        <v>67362205.9461127</v>
+        <v>66089631.0984158</v>
       </c>
       <c r="F199" t="s">
         <v>55</v>
       </c>
       <c r="G199" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H199" t="n">
         <v>2019</v>
@@ -8408,16 +8408,16 @@
         <v>39</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.05002255261444</v>
+        <v>-1.33582890816861</v>
       </c>
       <c r="E200" t="n">
-        <v>52318016.7980359</v>
+        <v>49354337.4472684</v>
       </c>
       <c r="F200" t="s">
         <v>55</v>
       </c>
       <c r="G200" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H200" t="n">
         <v>2019</v>
@@ -8446,7 +8446,7 @@
         <v>55</v>
       </c>
       <c r="G201" t="n">
-        <v>2.4617820935279</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H201" t="n">
         <v>2019</v>
@@ -8466,16 +8466,16 @@
         <v>38</v>
       </c>
       <c r="D202" t="n">
-        <v>0.125584398441658</v>
+        <v>0.183100612424036</v>
       </c>
       <c r="E202" t="n">
-        <v>310310236.555489</v>
+        <v>308190906.035478</v>
       </c>
       <c r="F202" t="s">
         <v>55</v>
       </c>
       <c r="G202" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H202"/>
       <c r="I202"/>
@@ -8491,16 +8491,16 @@
         <v>40</v>
       </c>
       <c r="D203" t="n">
-        <v>6.82478981592438</v>
+        <v>5.87874150073269</v>
       </c>
       <c r="E203" t="n">
-        <v>20322397.1637092</v>
+        <v>20260078.7024064</v>
       </c>
       <c r="F203" t="s">
         <v>55</v>
       </c>
       <c r="G203" t="n">
-        <v>1.21269100640971</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H203" t="n">
         <v>2019</v>
@@ -8529,7 +8529,7 @@
         <v>55</v>
       </c>
       <c r="G204" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H204" t="n">
         <v>2019</v>
@@ -8549,16 +8549,16 @@
         <v>38</v>
       </c>
       <c r="D205" t="n">
-        <v>0.257623387451433</v>
+        <v>0.244214717209856</v>
       </c>
       <c r="E205" t="n">
-        <v>417480302.168509</v>
+        <v>415464692.928509</v>
       </c>
       <c r="F205" t="s">
         <v>55</v>
       </c>
       <c r="G205" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H205" t="n">
         <v>2019</v>
@@ -8587,7 +8587,7 @@
         <v>55</v>
       </c>
       <c r="G206" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H206" t="n">
         <v>2019</v>
@@ -8616,7 +8616,7 @@
         <v>55</v>
       </c>
       <c r="G207" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H207" t="n">
         <v>2019</v>
@@ -8645,7 +8645,7 @@
         <v>55</v>
       </c>
       <c r="G208" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H208"/>
       <c r="I208"/>
@@ -8670,7 +8670,7 @@
         <v>55</v>
       </c>
       <c r="G209" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H209" t="n">
         <v>2019</v>
@@ -8699,7 +8699,7 @@
         <v>55</v>
       </c>
       <c r="G210" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H210" t="n">
         <v>2019</v>
@@ -8728,7 +8728,7 @@
         <v>55</v>
       </c>
       <c r="G211" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H211" t="n">
         <v>2019</v>
@@ -8748,16 +8748,16 @@
         <v>39</v>
       </c>
       <c r="D212" t="n">
-        <v>4.98439217240683</v>
+        <v>3.31199442759527</v>
       </c>
       <c r="E212" t="n">
-        <v>661914590.850469</v>
+        <v>565818877.350539</v>
       </c>
       <c r="F212" t="s">
         <v>55</v>
       </c>
       <c r="G212" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H212" t="n">
         <v>2019</v>
@@ -8777,16 +8777,16 @@
         <v>40</v>
       </c>
       <c r="D213" t="n">
-        <v>3.42012852091123</v>
+        <v>3.4120339056507</v>
       </c>
       <c r="E213" t="n">
-        <v>138539989.434923</v>
+        <v>138224740.328901</v>
       </c>
       <c r="F213" t="s">
         <v>55</v>
       </c>
       <c r="G213" t="n">
-        <v>1.21269100640971</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H213" t="n">
         <v>2019</v>
@@ -8815,7 +8815,7 @@
         <v>55</v>
       </c>
       <c r="G214" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H214" t="n">
         <v>2019</v>
@@ -8844,7 +8844,7 @@
         <v>55</v>
       </c>
       <c r="G215" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H215" t="n">
         <v>2019</v>
@@ -8873,7 +8873,7 @@
         <v>55</v>
       </c>
       <c r="G216" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H216" t="n">
         <v>2019</v>
@@ -8893,16 +8893,16 @@
         <v>39</v>
       </c>
       <c r="D217" t="n">
-        <v>-3.85277206091875</v>
+        <v>-3.96425392171157</v>
       </c>
       <c r="E217" t="n">
-        <v>280768517.878309</v>
+        <v>277647321.526777</v>
       </c>
       <c r="F217" t="s">
         <v>55</v>
       </c>
       <c r="G217" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H217" t="n">
         <v>2019</v>
@@ -8922,16 +8922,16 @@
         <v>42</v>
       </c>
       <c r="D218" t="n">
-        <v>2.73642029405332</v>
+        <v>2.73948760108245</v>
       </c>
       <c r="E218" t="n">
-        <v>275972424.628665</v>
+        <v>274565257.050155</v>
       </c>
       <c r="F218" t="s">
         <v>55</v>
       </c>
       <c r="G218" t="n">
-        <v>2.4617820935279</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H218" t="n">
         <v>2019</v>
@@ -8951,16 +8951,16 @@
         <v>39</v>
       </c>
       <c r="D219" t="n">
-        <v>-3.06250872255134</v>
+        <v>-2.92227064037556</v>
       </c>
       <c r="E219" t="n">
-        <v>456584284.091032</v>
+        <v>459634976.57441</v>
       </c>
       <c r="F219" t="s">
         <v>55</v>
       </c>
       <c r="G219" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H219" t="n">
         <v>2019</v>
@@ -8980,16 +8980,16 @@
         <v>39</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.643950502210411</v>
+        <v>-0.868068620050133</v>
       </c>
       <c r="E220" t="n">
-        <v>6621737526.31684</v>
+        <v>6252727957.77691</v>
       </c>
       <c r="F220" t="s">
         <v>55</v>
       </c>
       <c r="G220" t="n">
-        <v>-0.615155999674455</v>
+        <v>-0.881735158717378</v>
       </c>
       <c r="H220" t="n">
         <v>2019</v>
@@ -9018,7 +9018,7 @@
         <v>55</v>
       </c>
       <c r="G221" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H221"/>
       <c r="I221"/>
@@ -9034,16 +9034,16 @@
         <v>41</v>
       </c>
       <c r="D222" t="n">
-        <v>0.290360194460271</v>
+        <v>0.274762063886569</v>
       </c>
       <c r="E222" t="n">
-        <v>41076999.2077758</v>
+        <v>40910849.2146704</v>
       </c>
       <c r="F222" t="s">
         <v>55</v>
       </c>
       <c r="G222" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H222" t="n">
         <v>2019</v>
@@ -9063,16 +9063,16 @@
         <v>40</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.926471024216968</v>
+        <v>-0.991952470994872</v>
       </c>
       <c r="E223" t="n">
-        <v>173388898.537838</v>
+        <v>171230527.868422</v>
       </c>
       <c r="F223" t="s">
         <v>55</v>
       </c>
       <c r="G223" t="n">
-        <v>1.21269100640971</v>
+        <v>0.83906029848464</v>
       </c>
       <c r="H223" t="n">
         <v>2019</v>
@@ -9101,7 +9101,7 @@
         <v>55</v>
       </c>
       <c r="G224" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H224" t="n">
         <v>2019</v>
@@ -9121,16 +9121,16 @@
         <v>41</v>
       </c>
       <c r="D225" t="n">
-        <v>-3.48182469602718</v>
+        <v>-3.63420131495727</v>
       </c>
       <c r="E225" t="n">
-        <v>199692393.439333</v>
+        <v>195145691.930893</v>
       </c>
       <c r="F225" t="s">
         <v>55</v>
       </c>
       <c r="G225" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H225" t="n">
         <v>2019</v>
@@ -9150,16 +9150,16 @@
         <v>38</v>
       </c>
       <c r="D226" t="n">
-        <v>5.10261367711742</v>
+        <v>5.12243817124634</v>
       </c>
       <c r="E226" t="n">
-        <v>468856440.351112</v>
+        <v>469652964.011872</v>
       </c>
       <c r="F226" t="s">
         <v>55</v>
       </c>
       <c r="G226" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H226" t="n">
         <v>2019</v>
@@ -9188,7 +9188,7 @@
         <v>55</v>
       </c>
       <c r="G227" t="n">
-        <v>0.604685265666549</v>
+        <v>0.560492995259265</v>
       </c>
       <c r="H227" t="n">
         <v>2019</v>
@@ -9217,7 +9217,7 @@
         <v>55</v>
       </c>
       <c r="G228" t="n">
-        <v>2.46988231480199</v>
+        <v>2.42141644222735</v>
       </c>
       <c r="H228"/>
       <c r="I228"/>
@@ -9242,7 +9242,7 @@
         <v>55</v>
       </c>
       <c r="G229" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H229"/>
       <c r="I229"/>
@@ -9267,7 +9267,7 @@
         <v>55</v>
       </c>
       <c r="G230" t="n">
-        <v>2.4617820935279</v>
+        <v>2.4555627990877</v>
       </c>
       <c r="H230" t="n">
         <v>2019</v>
@@ -9287,16 +9287,16 @@
         <v>37</v>
       </c>
       <c r="D231" t="n">
-        <v>5.07034824740751</v>
+        <v>5.07025022746181</v>
       </c>
       <c r="E231" t="n">
-        <v>29310463.1563532</v>
+        <v>29309077.7159843</v>
       </c>
       <c r="F231" t="s">
         <v>55</v>
       </c>
       <c r="G231" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H231" t="n">
         <v>2019</v>
@@ -9325,7 +9325,7 @@
         <v>55</v>
       </c>
       <c r="G232" t="n">
-        <v>1.89525038872822</v>
+        <v>1.88593144450215</v>
       </c>
       <c r="H232" t="n">
         <v>2019</v>

--- a/Results/Plot data/ipcc_ar6_figure_spm2_regions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm2_regions.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-03 14:36:30</t>
+    <t xml:space="preserve">2021-08-04 14:07:59</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>

--- a/Results/Plot data/ipcc_ar6_figure_spm2_regions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm2_regions.xlsx
@@ -27,7 +27,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-01 13:51:28</t>
+    <t xml:space="preserve">2021-10-12 13:54:16</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -3799,94 +3799,94 @@
         <v>38</v>
       </c>
       <c r="B3" t="n">
-        <v>9.79993593577126</v>
+        <v>9.90809557645126</v>
       </c>
       <c r="C3" t="n">
-        <v>9.97589566392898</v>
+        <v>10.086178162437</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1591897786502</v>
+        <v>10.2718783610202</v>
       </c>
       <c r="E3" t="n">
-        <v>10.4901246632988</v>
+        <v>10.5894080120088</v>
       </c>
       <c r="F3" t="n">
-        <v>10.8157030571023</v>
+        <v>10.9213277715703</v>
       </c>
       <c r="G3" t="n">
-        <v>11.4088655049472</v>
+        <v>11.5408460893192</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5458950352601</v>
+        <v>11.6863532442421</v>
       </c>
       <c r="I3" t="n">
-        <v>13.4826676188237</v>
+        <v>13.6107063802197</v>
       </c>
       <c r="J3" t="n">
-        <v>11.585447362054</v>
+        <v>11.71315933426</v>
       </c>
       <c r="K3" t="n">
-        <v>11.6981509318181</v>
+        <v>11.8334696690081</v>
       </c>
       <c r="L3" t="n">
-        <v>12.3335079924872</v>
+        <v>12.4622460428372</v>
       </c>
       <c r="M3" t="n">
-        <v>12.4041852162801</v>
+        <v>12.5330284671801</v>
       </c>
       <c r="N3" t="n">
-        <v>13.2522071617822</v>
+        <v>13.3998467984722</v>
       </c>
       <c r="O3" t="n">
-        <v>14.1954965330804</v>
+        <v>14.3379184763804</v>
       </c>
       <c r="P3" t="n">
-        <v>14.9500484804272</v>
+        <v>15.1033699596472</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.8537056088687</v>
+        <v>16.0061327256197</v>
       </c>
       <c r="R3" t="n">
-        <v>17.1777812156881</v>
+        <v>17.3455524617851</v>
       </c>
       <c r="S3" t="n">
-        <v>17.5137712953789</v>
+        <v>17.6745869759499</v>
       </c>
       <c r="T3" t="n">
-        <v>18.0833889261214</v>
+        <v>18.2347956679714</v>
       </c>
       <c r="U3" t="n">
-        <v>19.7212665657826</v>
+        <v>19.8905675802106</v>
       </c>
       <c r="V3" t="n">
-        <v>20.2624900934573</v>
+        <v>20.4152961374843</v>
       </c>
       <c r="W3" t="n">
-        <v>21.4003521228801</v>
+        <v>21.5689047212943</v>
       </c>
       <c r="X3" t="n">
-        <v>22.2721220976063</v>
+        <v>22.4439746012655</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.6560179025733</v>
+        <v>22.8307340898007</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.7969872846342</v>
+        <v>23.9498870561132</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.8622855441187</v>
+        <v>24.0237844800807</v>
       </c>
       <c r="AB3" t="n">
-        <v>23.183340811523</v>
+        <v>23.3279542376438</v>
       </c>
       <c r="AC3" t="n">
-        <v>23.8241552748152</v>
+        <v>23.9579750017652</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.5915606241885</v>
+        <v>24.7175606290101</v>
       </c>
       <c r="AE3" t="n">
-        <v>25.7143029398276</v>
+        <v>25.8403784787994</v>
       </c>
     </row>
     <row r="4">
@@ -4435,7 +4435,7 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J2" t="n">
         <v>2019</v>
@@ -4528,7 +4528,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J5" t="n">
         <v>2019</v>
@@ -4896,7 +4896,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J17" t="n">
         <v>2019</v>
@@ -5113,7 +5113,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J24" t="n">
         <v>2019</v>
@@ -5299,7 +5299,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J30" t="n">
         <v>2019</v>
@@ -5454,7 +5454,7 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J35" t="n">
         <v>2019</v>
@@ -5660,10 +5660,10 @@
         <v>38</v>
       </c>
       <c r="D42" t="n">
-        <v>2.24236802644617</v>
+        <v>2.19415906900959</v>
       </c>
       <c r="E42" t="n">
-        <v>14093293062.3421</v>
+        <v>14219368601.3139</v>
       </c>
       <c r="F42" t="s">
         <v>57</v>
@@ -5671,7 +5671,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J42" t="n">
         <v>2019</v>
@@ -5826,7 +5826,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -6436,7 +6436,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J67" t="n">
         <v>2019</v>
@@ -6556,7 +6556,7 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J71" t="n">
         <v>2019</v>
@@ -6893,7 +6893,7 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J82" t="n">
         <v>2019</v>
@@ -7110,7 +7110,7 @@
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J89" t="n">
         <v>2019</v>
@@ -7203,7 +7203,7 @@
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J92" t="n">
         <v>2019</v>
@@ -7234,7 +7234,7 @@
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J93" t="n">
         <v>2019</v>
@@ -7575,7 +7575,7 @@
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J104" t="n">
         <v>2019</v>
@@ -7606,7 +7606,7 @@
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -7633,7 +7633,7 @@
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J106" t="n">
         <v>2019</v>
@@ -7726,7 +7726,7 @@
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J109" t="n">
         <v>2019</v>
@@ -7974,7 +7974,7 @@
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J117" t="n">
         <v>2019</v>
@@ -8098,7 +8098,7 @@
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J121" t="n">
         <v>2019</v>
@@ -8129,7 +8129,7 @@
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J122" t="n">
         <v>2019</v>
@@ -8222,7 +8222,7 @@
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J125" t="n">
         <v>2019</v>
@@ -8400,7 +8400,7 @@
       <c r="G131"/>
       <c r="H131"/>
       <c r="I131" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J131" t="n">
         <v>2019</v>
@@ -8462,7 +8462,7 @@
       <c r="G133"/>
       <c r="H133"/>
       <c r="I133" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J133" t="n">
         <v>2019</v>
@@ -8582,7 +8582,7 @@
       <c r="G137"/>
       <c r="H137"/>
       <c r="I137" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J137" t="n">
         <v>2019</v>
@@ -8644,7 +8644,7 @@
       <c r="G139"/>
       <c r="H139"/>
       <c r="I139" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J139" t="n">
         <v>2019</v>
@@ -8675,7 +8675,7 @@
       <c r="G140"/>
       <c r="H140"/>
       <c r="I140" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J140" t="n">
         <v>2019</v>
@@ -8764,7 +8764,7 @@
       <c r="G143"/>
       <c r="H143"/>
       <c r="I143" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J143" t="n">
         <v>2019</v>
@@ -8919,7 +8919,7 @@
       <c r="G148"/>
       <c r="H148"/>
       <c r="I148" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J148"/>
       <c r="K148"/>
@@ -8946,7 +8946,7 @@
       <c r="G149"/>
       <c r="H149"/>
       <c r="I149" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J149" t="n">
         <v>2019</v>
@@ -9039,7 +9039,7 @@
       <c r="G152"/>
       <c r="H152"/>
       <c r="I152" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J152" t="n">
         <v>2019</v>
@@ -9070,7 +9070,7 @@
       <c r="G153"/>
       <c r="H153"/>
       <c r="I153" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J153" t="n">
         <v>2019</v>
@@ -9132,7 +9132,7 @@
       <c r="G155"/>
       <c r="H155"/>
       <c r="I155" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J155" t="n">
         <v>2019</v>
@@ -9225,7 +9225,7 @@
       <c r="G158"/>
       <c r="H158"/>
       <c r="I158" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J158" t="n">
         <v>2019</v>
@@ -9554,7 +9554,7 @@
       <c r="G169"/>
       <c r="H169"/>
       <c r="I169" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J169" t="n">
         <v>2019</v>
@@ -9767,7 +9767,7 @@
       <c r="G176"/>
       <c r="H176"/>
       <c r="I176" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J176" t="n">
         <v>2019</v>
@@ -9860,7 +9860,7 @@
       <c r="G179"/>
       <c r="H179"/>
       <c r="I179" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J179" t="n">
         <v>2019</v>
@@ -9984,7 +9984,7 @@
       <c r="G183"/>
       <c r="H183"/>
       <c r="I183" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J183" t="n">
         <v>2019</v>
@@ -10294,7 +10294,7 @@
       <c r="G193"/>
       <c r="H193"/>
       <c r="I193" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J193"/>
       <c r="K193"/>
@@ -10383,7 +10383,7 @@
       <c r="G196"/>
       <c r="H196"/>
       <c r="I196" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J196" t="n">
         <v>2019</v>
@@ -10414,7 +10414,7 @@
       <c r="G197"/>
       <c r="H197"/>
       <c r="I197" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J197" t="n">
         <v>2019</v>
@@ -10476,7 +10476,7 @@
       <c r="G199"/>
       <c r="H199"/>
       <c r="I199" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J199"/>
       <c r="K199"/>
@@ -10503,7 +10503,7 @@
       <c r="G200"/>
       <c r="H200"/>
       <c r="I200" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J200" t="n">
         <v>2019</v>
@@ -10689,7 +10689,7 @@
       <c r="G206"/>
       <c r="H206"/>
       <c r="I206" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J206" t="n">
         <v>2019</v>
@@ -10937,7 +10937,7 @@
       <c r="G214"/>
       <c r="H214"/>
       <c r="I214" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J214" t="n">
         <v>2019</v>
@@ -10999,7 +10999,7 @@
       <c r="G216"/>
       <c r="H216"/>
       <c r="I216" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J216" t="n">
         <v>2019</v>
@@ -11061,7 +11061,7 @@
       <c r="G218"/>
       <c r="H218"/>
       <c r="I218" t="n">
-        <v>2.50108053512512</v>
+        <v>2.46933188480367</v>
       </c>
       <c r="J218"/>
       <c r="K218"/>
@@ -43606,25 +43606,25 @@
         <v>1063</v>
       </c>
       <c r="C3" t="n">
-        <v>9.79993593577126</v>
+        <v>9.90809557645126</v>
       </c>
       <c r="D3" t="n">
-        <v>20.2624900934573</v>
+        <v>20.4152961374843</v>
       </c>
       <c r="E3" t="n">
-        <v>25.7143029398276</v>
+        <v>25.8403784787994</v>
       </c>
       <c r="F3" t="n">
-        <v>15.9143670040563</v>
+        <v>15.9322829023481</v>
       </c>
       <c r="G3" t="n">
-        <v>162.392561628556</v>
+        <v>160.800658203325</v>
       </c>
       <c r="H3" t="n">
-        <v>5.45181284637031</v>
+        <v>5.42508234131509</v>
       </c>
       <c r="I3" t="n">
-        <v>26.9059371342059</v>
+        <v>26.5736157084401</v>
       </c>
     </row>
     <row r="4">
@@ -43849,10 +43849,10 @@
         <v>2.771184848</v>
       </c>
       <c r="F3" t="n">
-        <v>7.53914784628326</v>
+        <v>7.64730748696326</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7205503276782</v>
+        <v>2.75958043451429</v>
       </c>
     </row>
     <row r="4">
@@ -43987,10 +43987,10 @@
         <v>3.643537878</v>
       </c>
       <c r="F9" t="n">
-        <v>18.4748987896066</v>
+        <v>18.6277048336336</v>
       </c>
       <c r="G9" t="n">
-        <v>5.07059331018889</v>
+        <v>5.11253223031091</v>
       </c>
     </row>
     <row r="10">
@@ -44125,10 +44125,10 @@
         <v>3.970583353</v>
       </c>
       <c r="F15" t="n">
-        <v>23.0748061076676</v>
+        <v>23.2008816466394</v>
       </c>
       <c r="G15" t="n">
-        <v>5.81143979517097</v>
+        <v>5.84319219217745</v>
       </c>
     </row>
     <row r="16">

--- a/Results/Plot data/ipcc_ar6_figure_spm2_regions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm2_regions.xlsx
@@ -27,7 +27,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-12 13:54:16</t>
+    <t xml:space="preserve">2021-10-13 15:38:04</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
